--- a/raw_data/20200818_saline/20200818_Sensor3_Test_88.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_88.xlsx
@@ -1,4166 +1,4582 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A446C4A6-EB10-4BA1-BA2A-375B5FD4688D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>78861.191199</v>
+        <v>78861.191198999994</v>
       </c>
       <c r="B2" s="1">
-        <v>21.905886</v>
+        <v>21.905885999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1151.220000</v>
+        <v>1151.22</v>
       </c>
       <c r="D2" s="1">
-        <v>-257.171000</v>
+        <v>-257.17099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>78871.566545</v>
+        <v>78871.566544999994</v>
       </c>
       <c r="G2" s="1">
-        <v>21.908768</v>
+        <v>21.908767999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1173.510000</v>
+        <v>1173.51</v>
       </c>
       <c r="I2" s="1">
-        <v>-216.389000</v>
+        <v>-216.38900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>78882.032630</v>
+        <v>78882.032630000002</v>
       </c>
       <c r="L2" s="1">
         <v>21.911676</v>
       </c>
       <c r="M2" s="1">
-        <v>1201.360000</v>
+        <v>1201.3599999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.645000</v>
+        <v>-151.64500000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>78892.559686</v>
+        <v>78892.559685999993</v>
       </c>
       <c r="Q2" s="1">
-        <v>21.914600</v>
+        <v>21.9146</v>
       </c>
       <c r="R2" s="1">
-        <v>1209.630000</v>
+        <v>1209.6300000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.537000</v>
+        <v>-129.53700000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>78903.137863</v>
+        <v>78903.137862999996</v>
       </c>
       <c r="V2" s="1">
         <v>21.917538</v>
       </c>
       <c r="W2" s="1">
-        <v>1217.140000</v>
+        <v>1217.1400000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.558000</v>
+        <v>-108.55800000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>78914.257176</v>
+        <v>78914.257175999999</v>
       </c>
       <c r="AA2" s="1">
         <v>21.920627</v>
       </c>
       <c r="AB2" s="1">
-        <v>1225.170000</v>
+        <v>1225.17</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.632200</v>
+        <v>-91.632199999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>78924.802618</v>
+        <v>78924.802618000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>21.923556</v>
+        <v>21.923556000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1229.710000</v>
+        <v>1229.71</v>
       </c>
       <c r="AH2" s="1">
-        <v>-87.052500</v>
+        <v>-87.052499999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>78935.551420</v>
+        <v>78935.551420000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.926542</v>
+        <v>21.926542000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1237.300000</v>
+        <v>1237.3</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.184200</v>
+        <v>-90.184200000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>78946.090447</v>
+        <v>78946.090446999995</v>
       </c>
       <c r="AP2" s="1">
-        <v>21.929470</v>
+        <v>21.929469999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1245.350000</v>
+        <v>1245.3499999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.094000</v>
+        <v>-102.09399999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>78957.115520</v>
+        <v>78957.115520000007</v>
       </c>
       <c r="AU2" s="1">
-        <v>21.932532</v>
+        <v>21.932531999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1255.460000</v>
+        <v>1255.46</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.376000</v>
+        <v>-121.376</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>78968.534420</v>
+        <v>78968.534419999996</v>
       </c>
       <c r="AZ2" s="1">
-        <v>21.935704</v>
+        <v>21.935704000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1263.990000</v>
+        <v>1263.99</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.855000</v>
+        <v>-138.85499999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>78979.156706</v>
+        <v>78979.156705999994</v>
       </c>
       <c r="BE2" s="1">
-        <v>21.938655</v>
+        <v>21.938655000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1304.360000</v>
+        <v>1304.3599999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.905000</v>
+        <v>-220.905</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>78989.867349</v>
+        <v>78989.867348999993</v>
       </c>
       <c r="BJ2" s="1">
-        <v>21.941630</v>
+        <v>21.94163</v>
       </c>
       <c r="BK2" s="1">
-        <v>1374.610000</v>
+        <v>1374.61</v>
       </c>
       <c r="BL2" s="1">
-        <v>-357.509000</v>
+        <v>-357.50900000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>79001.023103</v>
       </c>
       <c r="BO2" s="1">
-        <v>21.944729</v>
+        <v>21.944728999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1490.320000</v>
+        <v>1490.32</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-579.123000</v>
+        <v>-579.12300000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>79012.180354</v>
+        <v>79012.180353999996</v>
       </c>
       <c r="BT2" s="1">
-        <v>21.947828</v>
+        <v>21.947828000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1623.690000</v>
+        <v>1623.69</v>
       </c>
       <c r="BV2" s="1">
-        <v>-827.933000</v>
+        <v>-827.93299999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>79022.873101</v>
+        <v>79022.873101000005</v>
       </c>
       <c r="BY2" s="1">
-        <v>21.950798</v>
+        <v>21.950797999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1777.010000</v>
+        <v>1777.01</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1098.390000</v>
+        <v>-1098.3900000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>79034.061354</v>
+        <v>79034.061354000005</v>
       </c>
       <c r="CD2" s="1">
         <v>21.953906</v>
       </c>
       <c r="CE2" s="1">
-        <v>2195.190000</v>
+        <v>2195.19</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1749.550000</v>
+        <v>-1749.55</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>78861.545342</v>
+        <v>78861.545341999998</v>
       </c>
       <c r="B3" s="1">
-        <v>21.905985</v>
+        <v>21.905985000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1150.970000</v>
+        <v>1150.97</v>
       </c>
       <c r="D3" s="1">
-        <v>-257.143000</v>
+        <v>-257.14299999999997</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>78871.936529</v>
+        <v>78871.936528999999</v>
       </c>
       <c r="G3" s="1">
-        <v>21.908871</v>
+        <v>21.908871000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1172.730000</v>
+        <v>1172.73</v>
       </c>
       <c r="I3" s="1">
-        <v>-216.320000</v>
+        <v>-216.32</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>78882.419474</v>
+        <v>78882.419473999995</v>
       </c>
       <c r="L3" s="1">
         <v>21.911783</v>
       </c>
       <c r="M3" s="1">
-        <v>1201.240000</v>
+        <v>1201.24</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.543000</v>
+        <v>-151.54300000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>78892.930196</v>
+        <v>78892.930196000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>21.914703</v>
+        <v>21.914702999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1209.660000</v>
+        <v>1209.6600000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.455000</v>
+        <v>-129.45500000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>78903.853094</v>
+        <v>78903.853094000006</v>
       </c>
       <c r="V3" s="1">
-        <v>21.917737</v>
+        <v>21.917736999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1217.380000</v>
+        <v>1217.3800000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.690000</v>
+        <v>-108.69</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>78914.642569</v>
+        <v>78914.642569000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>21.920734</v>
+        <v>21.920733999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1225.200000</v>
+        <v>1225.2</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.540000</v>
+        <v>-91.54</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>78925.147834</v>
+        <v>78925.147834000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>21.923652</v>
+        <v>21.923652000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1230.150000</v>
+        <v>1230.1500000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.921300</v>
+        <v>-86.921300000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>78935.903580</v>
+        <v>78935.903579999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>21.926640</v>
+        <v>21.926639999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.185900</v>
+        <v>-90.185900000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>78946.788318</v>
+        <v>78946.788318000006</v>
       </c>
       <c r="AP3" s="1">
-        <v>21.929663</v>
+        <v>21.929663000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1245.380000</v>
+        <v>1245.3800000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.076000</v>
+        <v>-102.07599999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>78957.798479</v>
+        <v>78957.798479000005</v>
       </c>
       <c r="AU3" s="1">
-        <v>21.932722</v>
+        <v>21.932721999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>1255.460000</v>
+        <v>1255.46</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.381000</v>
+        <v>-121.381</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>78968.944576</v>
+        <v>78968.944575999994</v>
       </c>
       <c r="AZ3" s="1">
-        <v>21.935818</v>
+        <v>21.935818000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1263.990000</v>
+        <v>1263.99</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.831000</v>
+        <v>-138.83099999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>78979.521762</v>
+        <v>78979.521762000004</v>
       </c>
       <c r="BE3" s="1">
-        <v>21.938756</v>
+        <v>21.938756000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1304.350000</v>
+        <v>1304.3499999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.926000</v>
+        <v>-220.92599999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>78990.250229</v>
+        <v>78990.250228999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>21.941736</v>
+        <v>21.941735999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1374.670000</v>
+        <v>1374.67</v>
       </c>
       <c r="BL3" s="1">
-        <v>-357.529000</v>
+        <v>-357.529</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>79001.454357</v>
+        <v>79001.454356999995</v>
       </c>
       <c r="BO3" s="1">
         <v>21.944848</v>
       </c>
       <c r="BP3" s="1">
-        <v>1490.360000</v>
+        <v>1490.36</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-579.159000</v>
+        <v>-579.15899999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>79012.611367</v>
+        <v>79012.611367000005</v>
       </c>
       <c r="BT3" s="1">
         <v>21.947948</v>
       </c>
       <c r="BU3" s="1">
-        <v>1623.710000</v>
+        <v>1623.71</v>
       </c>
       <c r="BV3" s="1">
-        <v>-827.921000</v>
+        <v>-827.92100000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>79023.345320</v>
+        <v>79023.345319999993</v>
       </c>
       <c r="BY3" s="1">
-        <v>21.950929</v>
+        <v>21.950928999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1777.070000</v>
+        <v>1777.07</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1098.550000</v>
+        <v>-1098.55</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>79034.365903</v>
+        <v>79034.365902999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>21.953991</v>
+        <v>21.953990999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>2196.380000</v>
+        <v>2196.38</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1749.790000</v>
+        <v>-1749.79</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>78861.889071</v>
+        <v>78861.889070999998</v>
       </c>
       <c r="B4" s="1">
-        <v>21.906080</v>
+        <v>21.906079999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1151.050000</v>
+        <v>1151.05</v>
       </c>
       <c r="D4" s="1">
-        <v>-257.457000</v>
+        <v>-257.45699999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>78872.281744</v>
+        <v>78872.281744000007</v>
       </c>
       <c r="G4" s="1">
-        <v>21.908967</v>
+        <v>21.908967000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1173.090000</v>
+        <v>1173.0899999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-217.197000</v>
+        <v>-217.197</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>78883.109409</v>
+        <v>78883.109408999997</v>
       </c>
       <c r="L4" s="1">
-        <v>21.911975</v>
+        <v>21.911975000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1201.380000</v>
+        <v>1201.3800000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.644000</v>
+        <v>-151.64400000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>78893.678201</v>
+        <v>78893.678201000002</v>
       </c>
       <c r="Q4" s="1">
         <v>21.914911</v>
       </c>
       <c r="R4" s="1">
-        <v>1209.730000</v>
+        <v>1209.73</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.496000</v>
+        <v>-129.49600000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>78904.194838</v>
+        <v>78904.194837999996</v>
       </c>
       <c r="V4" s="1">
-        <v>21.917832</v>
+        <v>21.917832000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1217.100000</v>
+        <v>1217.0999999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.828000</v>
+        <v>-108.828</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>78914.991752</v>
+        <v>78914.991752000002</v>
       </c>
       <c r="AA4" s="1">
         <v>21.920831</v>
       </c>
       <c r="AB4" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.528100</v>
+        <v>-91.528099999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>78925.492057</v>
+        <v>78925.492056999996</v>
       </c>
       <c r="AF4" s="1">
         <v>21.923748</v>
       </c>
       <c r="AG4" s="1">
-        <v>1229.990000</v>
+        <v>1229.99</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.980300</v>
+        <v>-86.9803</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>78936.566235</v>
+        <v>78936.566235000006</v>
       </c>
       <c r="AK4" s="1">
         <v>21.926824</v>
       </c>
       <c r="AL4" s="1">
-        <v>1237.320000</v>
+        <v>1237.32</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.208000</v>
+        <v>-90.207999999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>78947.195501</v>
+        <v>78947.195500999995</v>
       </c>
       <c r="AP4" s="1">
-        <v>21.929777</v>
+        <v>21.929777000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1245.410000</v>
+        <v>1245.4100000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.077000</v>
+        <v>-102.077</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>78958.222558</v>
+        <v>78958.222557999994</v>
       </c>
       <c r="AU4" s="1">
-        <v>21.932840</v>
+        <v>21.932839999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1255.450000</v>
+        <v>1255.45</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.361000</v>
+        <v>-121.361</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>78969.305168</v>
+        <v>78969.305168000006</v>
       </c>
       <c r="AZ4" s="1">
-        <v>21.935918</v>
+        <v>21.935918000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1263.960000</v>
+        <v>1263.96</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.828000</v>
+        <v>-138.828</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>78979.882355</v>
+        <v>78979.882354999994</v>
       </c>
       <c r="BE4" s="1">
-        <v>21.938856</v>
+        <v>21.938856000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1304.360000</v>
+        <v>1304.3599999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.931000</v>
+        <v>-220.93100000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>78990.632180</v>
+        <v>78990.632180000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>21.941842</v>
+        <v>21.941842000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1374.680000</v>
+        <v>1374.68</v>
       </c>
       <c r="BL4" s="1">
-        <v>-357.488000</v>
+        <v>-357.488</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>79001.881908</v>
+        <v>79001.881907999996</v>
       </c>
       <c r="BO4" s="1">
-        <v>21.944967</v>
+        <v>21.944966999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1490.320000</v>
+        <v>1490.32</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-579.154000</v>
+        <v>-579.154</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>79013.024038</v>
+        <v>79013.024038000003</v>
       </c>
       <c r="BT4" s="1">
         <v>21.948062</v>
       </c>
       <c r="BU4" s="1">
-        <v>1623.700000</v>
+        <v>1623.7</v>
       </c>
       <c r="BV4" s="1">
-        <v>-827.982000</v>
+        <v>-827.98199999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>79023.795656</v>
+        <v>79023.795656000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>21.951054</v>
+        <v>21.951053999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1777.150000</v>
+        <v>1777.15</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1098.730000</v>
+        <v>-1098.73</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>79034.897617</v>
+        <v>79034.897616999995</v>
       </c>
       <c r="CD4" s="1">
         <v>21.954138</v>
       </c>
       <c r="CE4" s="1">
-        <v>2194.270000</v>
+        <v>2194.27</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1751.130000</v>
+        <v>-1751.13</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>78862.574047</v>
+        <v>78862.574047000002</v>
       </c>
       <c r="B5" s="1">
         <v>21.906271</v>
       </c>
       <c r="C5" s="1">
-        <v>1150.950000</v>
+        <v>1150.95</v>
       </c>
       <c r="D5" s="1">
-        <v>-257.252000</v>
+        <v>-257.25200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>78872.969695</v>
+        <v>78872.969695000007</v>
       </c>
       <c r="G5" s="1">
-        <v>21.909158</v>
+        <v>21.909158000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1173.130000</v>
+        <v>1173.1300000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-216.492000</v>
+        <v>-216.49199999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>78883.453138</v>
+        <v>78883.453137999997</v>
       </c>
       <c r="L5" s="1">
-        <v>21.912070</v>
+        <v>21.91207</v>
       </c>
       <c r="M5" s="1">
-        <v>1201.430000</v>
+        <v>1201.43</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.428000</v>
+        <v>-151.428</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>78893.973781</v>
+        <v>78893.973780999993</v>
       </c>
       <c r="Q5" s="1">
-        <v>21.914993</v>
+        <v>21.914992999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1209.690000</v>
+        <v>1209.69</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.527000</v>
+        <v>-129.52699999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>78904.537574</v>
+        <v>78904.537574000002</v>
       </c>
       <c r="V5" s="1">
-        <v>21.917927</v>
+        <v>21.917926999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1217.460000</v>
+        <v>1217.46</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.529000</v>
+        <v>-108.529</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>78915.655400</v>
+        <v>78915.655400000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>21.921015</v>
+        <v>21.921015000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1225.200000</v>
+        <v>1225.2</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.534200</v>
+        <v>-91.534199999999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>78926.179017</v>
+        <v>78926.179017000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>21.923939</v>
+        <v>21.923939000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1229.990000</v>
+        <v>1229.99</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.952000</v>
+        <v>-86.951999999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>78936.946666</v>
+        <v>78936.946666000003</v>
       </c>
       <c r="AK5" s="1">
-        <v>21.926930</v>
+        <v>21.926929999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.187800</v>
+        <v>-90.187799999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>78947.573452</v>
+        <v>78947.573451999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>21.929882</v>
+        <v>21.929881999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1245.410000</v>
+        <v>1245.4100000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.053000</v>
+        <v>-102.053</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>78958.614429</v>
+        <v>78958.614428999994</v>
       </c>
       <c r="AU5" s="1">
         <v>21.932948</v>
       </c>
       <c r="AV5" s="1">
-        <v>1255.460000</v>
+        <v>1255.46</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.352000</v>
+        <v>-121.352</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>78969.664272</v>
+        <v>78969.664271999995</v>
       </c>
       <c r="AZ5" s="1">
-        <v>21.936018</v>
+        <v>21.936018000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1263.990000</v>
+        <v>1263.99</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.833000</v>
+        <v>-138.833</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>78980.303987</v>
+        <v>78980.303987000007</v>
       </c>
       <c r="BE5" s="1">
-        <v>21.938973</v>
+        <v>21.938973000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1304.360000</v>
+        <v>1304.3599999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.940000</v>
+        <v>-220.94</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>78991.054243</v>
+        <v>78991.054243000006</v>
       </c>
       <c r="BJ5" s="1">
-        <v>21.941960</v>
+        <v>21.941960000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1374.640000</v>
+        <v>1374.64</v>
       </c>
       <c r="BL5" s="1">
-        <v>-357.477000</v>
+        <v>-357.47699999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>79002.270308</v>
+        <v>79002.270308000006</v>
       </c>
       <c r="BO5" s="1">
-        <v>21.945075</v>
+        <v>21.945074999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1490.340000</v>
+        <v>1490.34</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-579.181000</v>
+        <v>-579.18100000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>79013.467461</v>
+        <v>79013.467460999993</v>
       </c>
       <c r="BT5" s="1">
-        <v>21.948185</v>
+        <v>21.948184999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1623.530000</v>
+        <v>1623.53</v>
       </c>
       <c r="BV5" s="1">
-        <v>-828.007000</v>
+        <v>-828.00699999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>79024.218743</v>
+        <v>79024.218743000005</v>
       </c>
       <c r="BY5" s="1">
         <v>21.951172</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1777.290000</v>
+        <v>1777.29</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1098.500000</v>
+        <v>-1098.5</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>79035.438744</v>
+        <v>79035.438743999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>21.954289</v>
+        <v>21.954288999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2196.550000</v>
+        <v>2196.5500000000002</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1751.440000</v>
+        <v>-1751.44</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>78862.915293</v>
+        <v>78862.915292999998</v>
       </c>
       <c r="B6" s="1">
-        <v>21.906365</v>
+        <v>21.906365000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1150.960000</v>
+        <v>1150.96</v>
       </c>
       <c r="D6" s="1">
-        <v>-257.395000</v>
+        <v>-257.39499999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>78873.306974</v>
+        <v>78873.306974000006</v>
       </c>
       <c r="G6" s="1">
-        <v>21.909252</v>
+        <v>21.909251999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1172.950000</v>
+        <v>1172.95</v>
       </c>
       <c r="I6" s="1">
-        <v>-216.185000</v>
+        <v>-216.185</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>78883.802355</v>
+        <v>78883.802355000007</v>
       </c>
       <c r="L6" s="1">
         <v>21.912167</v>
       </c>
       <c r="M6" s="1">
-        <v>1201.560000</v>
+        <v>1201.56</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.338000</v>
+        <v>-151.33799999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>78894.632642</v>
+        <v>78894.632641999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>21.915176</v>
+        <v>21.915175999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1209.720000</v>
+        <v>1209.72</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.583000</v>
+        <v>-129.583</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>78905.185845</v>
       </c>
       <c r="V6" s="1">
-        <v>21.918107</v>
+        <v>21.918106999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1217.440000</v>
+        <v>1217.44</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.461000</v>
+        <v>-108.461</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>78916.036326</v>
+        <v>78916.036326000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>21.921121</v>
+        <v>21.921120999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.449800</v>
+        <v>-91.449799999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>78926.523736</v>
+        <v>78926.523736000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>21.924034</v>
+        <v>21.924033999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1229.900000</v>
+        <v>1229.9000000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.980700</v>
+        <v>-86.980699999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>78937.297338</v>
+        <v>78937.297338000004</v>
       </c>
       <c r="AK6" s="1">
-        <v>21.927027</v>
+        <v>21.927026999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1237.310000</v>
+        <v>1237.31</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.200700</v>
+        <v>-90.200699999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>78947.967276</v>
+        <v>78947.967275999996</v>
       </c>
       <c r="AP6" s="1">
-        <v>21.929991</v>
+        <v>21.929991000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1245.390000</v>
+        <v>1245.3900000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.051000</v>
+        <v>-102.051</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>78958.975487</v>
+        <v>78958.975487000003</v>
       </c>
       <c r="AU6" s="1">
         <v>21.933049</v>
       </c>
       <c r="AV6" s="1">
-        <v>1255.450000</v>
+        <v>1255.45</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.366000</v>
+        <v>-121.366</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>78970.092814</v>
+        <v>78970.092814000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>21.936137</v>
+        <v>21.936136999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1263.980000</v>
+        <v>1263.98</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.896000</v>
+        <v>-138.89599999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>78980.601554</v>
+        <v>78980.601553999993</v>
       </c>
       <c r="BE6" s="1">
-        <v>21.939056</v>
+        <v>21.939056000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1304.360000</v>
+        <v>1304.3599999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.930000</v>
+        <v>-220.93</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>78991.397971</v>
+        <v>78991.397970999999</v>
       </c>
       <c r="BJ6" s="1">
         <v>21.942055</v>
       </c>
       <c r="BK6" s="1">
-        <v>1374.660000</v>
+        <v>1374.66</v>
       </c>
       <c r="BL6" s="1">
-        <v>-357.488000</v>
+        <v>-357.488</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>79002.671043</v>
+        <v>79002.671042999995</v>
       </c>
       <c r="BO6" s="1">
         <v>21.945186</v>
       </c>
       <c r="BP6" s="1">
-        <v>1490.320000</v>
+        <v>1490.32</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-579.192000</v>
+        <v>-579.19200000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>79013.893028</v>
+        <v>79013.893028000006</v>
       </c>
       <c r="BT6" s="1">
         <v>21.948304</v>
       </c>
       <c r="BU6" s="1">
-        <v>1623.520000</v>
+        <v>1623.52</v>
       </c>
       <c r="BV6" s="1">
-        <v>-828.100000</v>
+        <v>-828.1</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>79024.640871</v>
+        <v>79024.640870999996</v>
       </c>
       <c r="BY6" s="1">
-        <v>21.951289</v>
+        <v>21.951288999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1777.280000</v>
+        <v>1777.28</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1098.610000</v>
+        <v>-1098.6099999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>79035.975927</v>
+        <v>79035.975927000007</v>
       </c>
       <c r="CD6" s="1">
         <v>21.954438</v>
       </c>
       <c r="CE6" s="1">
-        <v>2194.820000</v>
+        <v>2194.8200000000002</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1749.780000</v>
+        <v>-1749.78</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>78863.258060</v>
+        <v>78863.258059999993</v>
       </c>
       <c r="B7" s="1">
         <v>21.906461</v>
       </c>
       <c r="C7" s="1">
-        <v>1151.050000</v>
+        <v>1151.05</v>
       </c>
       <c r="D7" s="1">
-        <v>-257.443000</v>
+        <v>-257.44299999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>78873.659134</v>
+        <v>78873.659134000001</v>
       </c>
       <c r="G7" s="1">
-        <v>21.909350</v>
+        <v>21.90935</v>
       </c>
       <c r="H7" s="1">
-        <v>1172.750000</v>
+        <v>1172.75</v>
       </c>
       <c r="I7" s="1">
-        <v>-216.548000</v>
+        <v>-216.548</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>78884.462000</v>
+        <v>78884.462</v>
       </c>
       <c r="L7" s="1">
-        <v>21.912351</v>
+        <v>21.912351000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1201.570000</v>
+        <v>1201.57</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.450000</v>
+        <v>-151.44999999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>78895.006946</v>
+        <v>78895.006945999994</v>
       </c>
       <c r="Q7" s="1">
-        <v>21.915280</v>
+        <v>21.915279999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1209.690000</v>
+        <v>1209.69</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.495000</v>
+        <v>-129.495</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>78905.568789</v>
+        <v>78905.568788999997</v>
       </c>
       <c r="V7" s="1">
-        <v>21.918214</v>
+        <v>21.918213999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1217.290000</v>
+        <v>1217.29</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.748000</v>
+        <v>-108.748</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>78916.387494</v>
+        <v>78916.387493999995</v>
       </c>
       <c r="AA7" s="1">
-        <v>21.921219</v>
+        <v>21.921219000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1225.040000</v>
+        <v>1225.04</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.501900</v>
+        <v>-91.501900000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>78926.866969</v>
+        <v>78926.866968999995</v>
       </c>
       <c r="AF7" s="1">
-        <v>21.924130</v>
+        <v>21.924130000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>1229.850000</v>
+        <v>1229.8499999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.989300</v>
+        <v>-86.9893</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>78937.647513</v>
+        <v>78937.647513000004</v>
       </c>
       <c r="AK7" s="1">
-        <v>21.927124</v>
+        <v>21.927123999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1237.310000</v>
+        <v>1237.31</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.174400</v>
+        <v>-90.174400000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>78948.392844</v>
+        <v>78948.392844000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>21.930109</v>
+        <v>21.930109000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.056000</v>
+        <v>-102.056</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>78959.402544</v>
+        <v>78959.402543999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>21.933167</v>
+        <v>21.933167000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1255.430000</v>
+        <v>1255.43</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.364000</v>
+        <v>-121.364</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>78970.381487</v>
+        <v>78970.381487000006</v>
       </c>
       <c r="AZ7" s="1">
-        <v>21.936217</v>
+        <v>21.936216999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1264.000000</v>
+        <v>1264</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.862000</v>
+        <v>-138.86199999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>78980.965649</v>
+        <v>78980.965649000005</v>
       </c>
       <c r="BE7" s="1">
-        <v>21.939157</v>
+        <v>21.939157000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1304.380000</v>
+        <v>1304.3800000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.928000</v>
+        <v>-220.928</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>78991.772946</v>
+        <v>78991.772945999997</v>
       </c>
       <c r="BJ7" s="1">
         <v>21.942159</v>
       </c>
       <c r="BK7" s="1">
-        <v>1374.660000</v>
+        <v>1374.66</v>
       </c>
       <c r="BL7" s="1">
-        <v>-357.516000</v>
+        <v>-357.51600000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>79003.090659</v>
+        <v>79003.090658999994</v>
       </c>
       <c r="BO7" s="1">
-        <v>21.945303</v>
+        <v>21.945302999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1490.290000</v>
+        <v>1490.29</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-579.218000</v>
+        <v>-579.21799999999996</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>79014.321076</v>
+        <v>79014.321075999993</v>
       </c>
       <c r="BT7" s="1">
-        <v>21.948423</v>
+        <v>21.948422999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1623.490000</v>
+        <v>1623.49</v>
       </c>
       <c r="BV7" s="1">
-        <v>-827.960000</v>
+        <v>-827.96</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>79025.087238</v>
+        <v>79025.087237999993</v>
       </c>
       <c r="BY7" s="1">
-        <v>21.951413</v>
+        <v>21.951412999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1777.190000</v>
+        <v>1777.19</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1098.660000</v>
+        <v>-1098.6600000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>79036.518536</v>
+        <v>79036.518536000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>21.954588</v>
+        <v>21.954588000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2195.720000</v>
+        <v>2195.7199999999998</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1752.500000</v>
+        <v>-1752.5</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>78863.910298</v>
+        <v>78863.910298000003</v>
       </c>
       <c r="B8" s="1">
-        <v>21.906642</v>
+        <v>21.906642000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1150.930000</v>
+        <v>1150.93</v>
       </c>
       <c r="D8" s="1">
-        <v>-257.242000</v>
+        <v>-257.24200000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>78874.318317</v>
+        <v>78874.318316999997</v>
       </c>
       <c r="G8" s="1">
         <v>21.909533</v>
       </c>
       <c r="H8" s="1">
-        <v>1172.550000</v>
+        <v>1172.55</v>
       </c>
       <c r="I8" s="1">
-        <v>-216.078000</v>
+        <v>-216.078</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>78884.835520</v>
+        <v>78884.835519999993</v>
       </c>
       <c r="L8" s="1">
         <v>21.912454</v>
       </c>
       <c r="M8" s="1">
-        <v>1201.550000</v>
+        <v>1201.55</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.525000</v>
+        <v>-151.52500000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>78895.367041</v>
+        <v>78895.367041000005</v>
       </c>
       <c r="Q8" s="1">
-        <v>21.915380</v>
+        <v>21.915379999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1209.710000</v>
+        <v>1209.71</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.496000</v>
+        <v>-129.49600000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>78905.913971</v>
+        <v>78905.913971000002</v>
       </c>
       <c r="V8" s="1">
-        <v>21.918309</v>
+        <v>21.918309000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1217.260000</v>
+        <v>1217.26</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.716000</v>
+        <v>-108.71599999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>78916.736181</v>
       </c>
       <c r="AA8" s="1">
-        <v>21.921316</v>
+        <v>21.921316000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1225.190000</v>
+        <v>1225.19</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.561400</v>
+        <v>-91.561400000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>78927.287614</v>
+        <v>78927.287614000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>21.924247</v>
+        <v>21.924247000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1230.010000</v>
+        <v>1230.01</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.899000</v>
+        <v>-86.899000000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>78938.069114</v>
+        <v>78938.069113999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>21.927241</v>
+        <v>21.927240999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.170600</v>
+        <v>-90.170599999999993</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>78948.685483</v>
+        <v>78948.685482999994</v>
       </c>
       <c r="AP8" s="1">
-        <v>21.930190</v>
+        <v>21.93019</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.080000</v>
+        <v>-102.08</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>78959.707117</v>
+        <v>78959.707116999998</v>
       </c>
       <c r="AU8" s="1">
         <v>21.933252</v>
       </c>
       <c r="AV8" s="1">
-        <v>1255.450000</v>
+        <v>1255.45</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.390000</v>
+        <v>-121.39</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>78970.741086</v>
+        <v>78970.741085999995</v>
       </c>
       <c r="AZ8" s="1">
-        <v>21.936317</v>
+        <v>21.936316999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1263.980000</v>
+        <v>1263.98</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.853000</v>
+        <v>-138.85300000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>78981.328688</v>
+        <v>78981.328687999994</v>
       </c>
       <c r="BE8" s="1">
-        <v>21.939258</v>
+        <v>21.939257999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1304.350000</v>
+        <v>1304.3499999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.920000</v>
+        <v>-220.92</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>78992.153378</v>
+        <v>78992.153378000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>21.942265</v>
+        <v>21.942264999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1374.650000</v>
+        <v>1374.65</v>
       </c>
       <c r="BL8" s="1">
-        <v>-357.488000</v>
+        <v>-357.488</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>79003.907074</v>
+        <v>79003.907074000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>21.945530</v>
+        <v>21.945530000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1490.360000</v>
+        <v>1490.36</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-579.190000</v>
+        <v>-579.19000000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>79014.731267</v>
+        <v>79014.731266999996</v>
       </c>
       <c r="BT8" s="1">
-        <v>21.948536</v>
+        <v>21.948536000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1623.380000</v>
+        <v>1623.38</v>
       </c>
       <c r="BV8" s="1">
-        <v>-828.025000</v>
+        <v>-828.02499999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>79025.519781</v>
+        <v>79025.519780999995</v>
       </c>
       <c r="BY8" s="1">
-        <v>21.951533</v>
+        <v>21.951533000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1777.310000</v>
+        <v>1777.31</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1098.670000</v>
+        <v>-1098.67</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>79037.056199</v>
+        <v>79037.056198999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>21.954738</v>
+        <v>21.954737999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2195.880000</v>
+        <v>2195.88</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1749.860000</v>
+        <v>-1749.86</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>78864.284756</v>
+        <v>78864.284755999994</v>
       </c>
       <c r="B9" s="1">
-        <v>21.906746</v>
+        <v>21.906745999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>1151.050000</v>
+        <v>1151.05</v>
       </c>
       <c r="D9" s="1">
-        <v>-257.192000</v>
+        <v>-257.19200000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>78874.694285</v>
+        <v>78874.694285000005</v>
       </c>
       <c r="G9" s="1">
         <v>21.909637</v>
       </c>
       <c r="H9" s="1">
-        <v>1172.580000</v>
+        <v>1172.58</v>
       </c>
       <c r="I9" s="1">
-        <v>-216.551000</v>
+        <v>-216.55099999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>78885.181695</v>
+        <v>78885.181695000007</v>
       </c>
       <c r="L9" s="1">
-        <v>21.912550</v>
+        <v>21.91255</v>
       </c>
       <c r="M9" s="1">
-        <v>1201.330000</v>
+        <v>1201.33</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.462000</v>
+        <v>-151.46199999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>78895.718737</v>
+        <v>78895.718737000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>21.915477</v>
+        <v>21.915476999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1209.730000</v>
+        <v>1209.73</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.514000</v>
+        <v>-129.51400000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>78906.258194</v>
+        <v>78906.258193999995</v>
       </c>
       <c r="V9" s="1">
         <v>21.918405</v>
       </c>
       <c r="W9" s="1">
-        <v>1217.210000</v>
+        <v>1217.21</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.640000</v>
+        <v>-108.64</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>78917.159765</v>
+        <v>78917.159765000004</v>
       </c>
       <c r="AA9" s="1">
         <v>21.921433</v>
       </c>
       <c r="AB9" s="1">
-        <v>1225.120000</v>
+        <v>1225.1199999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.448700</v>
+        <v>-91.448700000000002</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>78927.909062</v>
+        <v>78927.909062000006</v>
       </c>
       <c r="AF9" s="1">
         <v>21.924419</v>
       </c>
       <c r="AG9" s="1">
-        <v>1230.210000</v>
+        <v>1230.21</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.856700</v>
+        <v>-86.856700000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>78938.342937</v>
+        <v>78938.342936999994</v>
       </c>
       <c r="AK9" s="1">
-        <v>21.927317</v>
+        <v>21.927316999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1237.310000</v>
+        <v>1237.31</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.209700</v>
+        <v>-90.209699999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>78949.044406</v>
+        <v>78949.044406000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>21.930290</v>
+        <v>21.930289999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.078000</v>
+        <v>-102.078</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>78960.070690</v>
+        <v>78960.070689999993</v>
       </c>
       <c r="AU9" s="1">
         <v>21.933353</v>
       </c>
       <c r="AV9" s="1">
-        <v>1255.480000</v>
+        <v>1255.48</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.355000</v>
+        <v>-121.355</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>78971.099233</v>
+        <v>78971.099233000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>21.936416</v>
+        <v>21.936416000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1263.970000</v>
+        <v>1263.97</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.852000</v>
+        <v>-138.852</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>78982.048382</v>
+        <v>78982.048381999994</v>
       </c>
       <c r="BE9" s="1">
-        <v>21.939458</v>
+        <v>21.939457999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1304.400000</v>
+        <v>1304.4000000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.931000</v>
+        <v>-220.93100000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>78992.918705</v>
+        <v>78992.918705000004</v>
       </c>
       <c r="BJ9" s="1">
         <v>21.942477</v>
       </c>
       <c r="BK9" s="1">
-        <v>1374.650000</v>
+        <v>1374.65</v>
       </c>
       <c r="BL9" s="1">
-        <v>-357.519000</v>
+        <v>-357.51900000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>79004.324706</v>
+        <v>79004.324705999999</v>
       </c>
       <c r="BO9" s="1">
         <v>21.945646</v>
       </c>
       <c r="BP9" s="1">
-        <v>1490.350000</v>
+        <v>1490.35</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-579.191000</v>
+        <v>-579.19100000000003</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>79015.161332</v>
+        <v>79015.161332000003</v>
       </c>
       <c r="BT9" s="1">
         <v>21.948656</v>
       </c>
       <c r="BU9" s="1">
-        <v>1623.420000</v>
+        <v>1623.42</v>
       </c>
       <c r="BV9" s="1">
-        <v>-828.181000</v>
+        <v>-828.18100000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>79025.943866</v>
+        <v>79025.943866000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>21.951651</v>
+        <v>21.951650999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1777.110000</v>
+        <v>1777.11</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1098.650000</v>
+        <v>-1098.6500000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>79037.921717</v>
+        <v>79037.921717000005</v>
       </c>
       <c r="CD9" s="1">
-        <v>21.954978</v>
+        <v>21.954978000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2196.130000</v>
+        <v>2196.13</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1751.870000</v>
+        <v>-1751.87</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>78864.626987</v>
+        <v>78864.626986999996</v>
       </c>
       <c r="B10" s="1">
         <v>21.906841</v>
       </c>
       <c r="C10" s="1">
-        <v>1151.150000</v>
+        <v>1151.1500000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-257.142000</v>
+        <v>-257.142</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>78875.036556</v>
+        <v>78875.036556000006</v>
       </c>
       <c r="G10" s="1">
-        <v>21.909732</v>
+        <v>21.909732000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>1172.970000</v>
+        <v>1172.97</v>
       </c>
       <c r="I10" s="1">
-        <v>-216.618000</v>
+        <v>-216.61799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>78885.529390</v>
+        <v>78885.529389999996</v>
       </c>
       <c r="L10" s="1">
         <v>21.912647</v>
       </c>
       <c r="M10" s="1">
-        <v>1201.620000</v>
+        <v>1201.6199999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.384000</v>
+        <v>-151.38399999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>78896.149232</v>
+        <v>78896.149231999996</v>
       </c>
       <c r="Q10" s="1">
-        <v>21.915597</v>
+        <v>21.915597000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>1209.750000</v>
+        <v>1209.75</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.565000</v>
+        <v>-129.565</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>78906.688259</v>
+        <v>78906.688259000002</v>
       </c>
       <c r="V10" s="1">
-        <v>21.918525</v>
+        <v>21.918524999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1217.340000</v>
+        <v>1217.3399999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.657000</v>
+        <v>-108.657</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>78917.436532</v>
+        <v>78917.436532000007</v>
       </c>
       <c r="AA10" s="1">
-        <v>21.921510</v>
+        <v>21.921510000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1225.170000</v>
+        <v>1225.17</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.509700</v>
+        <v>-91.509699999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>78928.250844</v>
+        <v>78928.250843999995</v>
       </c>
       <c r="AF10" s="1">
-        <v>21.924514</v>
+        <v>21.924513999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1229.980000</v>
+        <v>1229.98</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.898500</v>
+        <v>-86.898499999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>78938.694568</v>
+        <v>78938.694568000006</v>
       </c>
       <c r="AK10" s="1">
         <v>21.927415</v>
       </c>
       <c r="AL10" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.217400</v>
+        <v>-90.217399999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>78949.409146</v>
+        <v>78949.409146000005</v>
       </c>
       <c r="AP10" s="1">
         <v>21.930391</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1245.350000</v>
+        <v>1245.3499999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.081000</v>
+        <v>-102.081</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>78960.434715</v>
+        <v>78960.434714999996</v>
       </c>
       <c r="AU10" s="1">
-        <v>21.933454</v>
+        <v>21.933454000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1255.450000</v>
+        <v>1255.45</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.368000</v>
+        <v>-121.36799999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>78971.818892</v>
+        <v>78971.818891999996</v>
       </c>
       <c r="AZ10" s="1">
-        <v>21.936616</v>
+        <v>21.936616000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1263.960000</v>
+        <v>1263.96</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.829000</v>
+        <v>-138.82900000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>78982.436750</v>
+        <v>78982.436749999993</v>
       </c>
       <c r="BE10" s="1">
-        <v>21.939566</v>
+        <v>21.939565999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1304.370000</v>
+        <v>1304.3699999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.939000</v>
+        <v>-220.93899999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>78993.296658</v>
+        <v>78993.296658000007</v>
       </c>
       <c r="BJ10" s="1">
-        <v>21.942582</v>
+        <v>21.942582000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1374.620000</v>
+        <v>1374.62</v>
       </c>
       <c r="BL10" s="1">
-        <v>-357.485000</v>
+        <v>-357.48500000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>79004.721505</v>
+        <v>79004.721504999994</v>
       </c>
       <c r="BO10" s="1">
-        <v>21.945756</v>
+        <v>21.945755999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1490.360000</v>
+        <v>1490.36</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-579.181000</v>
+        <v>-579.18100000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>79015.899346</v>
+        <v>79015.899346000006</v>
       </c>
       <c r="BT10" s="1">
-        <v>21.948861</v>
+        <v>21.948861000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1623.410000</v>
+        <v>1623.41</v>
       </c>
       <c r="BV10" s="1">
-        <v>-828.257000</v>
+        <v>-828.25699999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>79026.688323</v>
+        <v>79026.688322999995</v>
       </c>
       <c r="BY10" s="1">
-        <v>21.951858</v>
+        <v>21.951858000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1777.170000</v>
+        <v>1777.17</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1098.500000</v>
+        <v>-1098.5</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>79038.134005</v>
       </c>
       <c r="CD10" s="1">
-        <v>21.955037</v>
+        <v>21.955037000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2196.490000</v>
+        <v>2196.4899999999998</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1752.030000</v>
+        <v>-1752.03</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>78864.969258</v>
+        <v>78864.969257999997</v>
       </c>
       <c r="B11" s="1">
-        <v>21.906936</v>
+        <v>21.906936000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>1151.120000</v>
+        <v>1151.1199999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-257.152000</v>
+        <v>-257.15199999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>78875.389180</v>
+        <v>78875.389179999998</v>
       </c>
       <c r="G11" s="1">
-        <v>21.909830</v>
+        <v>21.909829999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1173.360000</v>
+        <v>1173.3599999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-216.391000</v>
+        <v>-216.39099999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>78885.959918</v>
+        <v>78885.959917999993</v>
       </c>
       <c r="L11" s="1">
-        <v>21.912767</v>
+        <v>21.912766999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1201.660000</v>
+        <v>1201.6600000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.493000</v>
+        <v>-151.49299999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>78896.430960</v>
+        <v>78896.430959999998</v>
       </c>
       <c r="Q11" s="1">
         <v>21.915675</v>
       </c>
       <c r="R11" s="1">
-        <v>1209.700000</v>
+        <v>1209.7</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.536000</v>
+        <v>-129.536</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>78906.961523</v>
+        <v>78906.961523000005</v>
       </c>
       <c r="V11" s="1">
-        <v>21.918600</v>
+        <v>21.918600000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1217.360000</v>
+        <v>1217.3599999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.662000</v>
+        <v>-108.66200000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>78917.785221</v>
+        <v>78917.785220999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>21.921607</v>
+        <v>21.921607000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>1225.200000</v>
+        <v>1225.2</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.487200</v>
+        <v>-91.487200000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>78928.599989</v>
+        <v>78928.599988999995</v>
       </c>
       <c r="AF11" s="1">
-        <v>21.924611</v>
+        <v>21.924610999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1229.990000</v>
+        <v>1229.99</v>
       </c>
       <c r="AH11" s="1">
-        <v>-87.025600</v>
+        <v>-87.025599999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>78939.038333</v>
+        <v>78939.038333000004</v>
       </c>
       <c r="AK11" s="1">
-        <v>21.927511</v>
+        <v>21.927510999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1237.290000</v>
+        <v>1237.29</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.193800</v>
+        <v>-90.193799999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>78950.131849</v>
+        <v>78950.131848999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>21.930592</v>
+        <v>21.930592000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1245.400000</v>
+        <v>1245.4000000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.074000</v>
+        <v>-102.074</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>78961.163834</v>
+        <v>78961.163834000006</v>
       </c>
       <c r="AU11" s="1">
         <v>21.933657</v>
       </c>
       <c r="AV11" s="1">
-        <v>1255.470000</v>
+        <v>1255.47</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.362000</v>
+        <v>-121.36199999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>78972.175721</v>
+        <v>78972.175721000007</v>
       </c>
       <c r="AZ11" s="1">
         <v>21.936715</v>
       </c>
       <c r="BA11" s="1">
-        <v>1263.980000</v>
+        <v>1263.98</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.843000</v>
+        <v>-138.84299999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>78982.816686</v>
+        <v>78982.816686000006</v>
       </c>
       <c r="BE11" s="1">
-        <v>21.939671</v>
+        <v>21.939671000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1304.380000</v>
+        <v>1304.3800000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.931000</v>
+        <v>-220.93100000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>78993.664689</v>
+        <v>78993.664688999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>21.942685</v>
+        <v>21.942685000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1374.640000</v>
+        <v>1374.64</v>
       </c>
       <c r="BL11" s="1">
-        <v>-357.499000</v>
+        <v>-357.49900000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>79005.456126</v>
+        <v>79005.456126000005</v>
       </c>
       <c r="BO11" s="1">
-        <v>21.945960</v>
+        <v>21.945959999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1490.300000</v>
+        <v>1490.3</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-579.180000</v>
+        <v>-579.17999999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>79016.023377</v>
+        <v>79016.023377000005</v>
       </c>
       <c r="BT11" s="1">
         <v>21.948895</v>
       </c>
       <c r="BU11" s="1">
-        <v>1623.230000</v>
+        <v>1623.23</v>
       </c>
       <c r="BV11" s="1">
-        <v>-828.203000</v>
+        <v>-828.20299999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>79026.809348</v>
+        <v>79026.809347999995</v>
       </c>
       <c r="BY11" s="1">
         <v>21.951891</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1777.040000</v>
+        <v>1777.04</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1098.500000</v>
+        <v>-1098.5</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>79038.655806</v>
+        <v>79038.655805999995</v>
       </c>
       <c r="CD11" s="1">
-        <v>21.955182</v>
+        <v>21.955182000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2196.320000</v>
+        <v>2196.3200000000002</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1749.900000</v>
+        <v>-1749.9</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>78865.403759</v>
+        <v>78865.403758999993</v>
       </c>
       <c r="B12" s="1">
-        <v>21.907057</v>
+        <v>21.907056999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>1150.950000</v>
+        <v>1150.95</v>
       </c>
       <c r="D12" s="1">
-        <v>-257.362000</v>
+        <v>-257.36200000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>78875.819707</v>
+        <v>78875.819707000002</v>
       </c>
       <c r="G12" s="1">
-        <v>21.909950</v>
+        <v>21.909949999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>1172.880000</v>
+        <v>1172.8800000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-216.308000</v>
+        <v>-216.30799999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>78886.240686</v>
+        <v>78886.240686000005</v>
       </c>
       <c r="L12" s="1">
-        <v>21.912845</v>
+        <v>21.912845000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1201.660000</v>
+        <v>1201.6600000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.516000</v>
+        <v>-151.51599999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>78896.782636</v>
+        <v>78896.782636000004</v>
       </c>
       <c r="Q12" s="1">
-        <v>21.915773</v>
+        <v>21.915773000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>1209.740000</v>
+        <v>1209.74</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.495000</v>
+        <v>-129.495</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>78907.304257</v>
+        <v>78907.304256999996</v>
       </c>
       <c r="V12" s="1">
-        <v>21.918696</v>
+        <v>21.918696000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1217.270000</v>
+        <v>1217.27</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.582000</v>
+        <v>-108.58199999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>78918.135427</v>
+        <v>78918.135427000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>21.921704</v>
+        <v>21.921703999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>1225.190000</v>
+        <v>1225.19</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.554700</v>
+        <v>-91.554699999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>78929.287444</v>
+        <v>78929.287444000001</v>
       </c>
       <c r="AF12" s="1">
         <v>21.924802</v>
       </c>
       <c r="AG12" s="1">
-        <v>1229.980000</v>
+        <v>1229.98</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.973400</v>
+        <v>-86.973399999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>78939.738647</v>
+        <v>78939.738647000006</v>
       </c>
       <c r="AK12" s="1">
         <v>21.927705</v>
       </c>
       <c r="AL12" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.188400</v>
+        <v>-90.188400000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>78950.507784</v>
+        <v>78950.507784000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.930697</v>
+        <v>21.930696999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.067000</v>
+        <v>-102.06699999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>78961.529882</v>
+        <v>78961.529882000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>21.933758</v>
+        <v>21.933758000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1255.470000</v>
+        <v>1255.47</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.360000</v>
+        <v>-121.36</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>78972.535115</v>
+        <v>78972.535115000006</v>
       </c>
       <c r="AZ12" s="1">
-        <v>21.936815</v>
+        <v>21.936814999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1263.980000</v>
+        <v>1263.98</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.841000</v>
+        <v>-138.84100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>78983.488765</v>
+        <v>78983.488765000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>21.939858</v>
+        <v>21.939858000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1304.370000</v>
+        <v>1304.3699999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.939000</v>
+        <v>-220.93899999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>78994.362066</v>
+        <v>78994.362066000002</v>
       </c>
       <c r="BJ12" s="1">
         <v>21.942878</v>
       </c>
       <c r="BK12" s="1">
-        <v>1374.640000</v>
+        <v>1374.64</v>
       </c>
       <c r="BL12" s="1">
-        <v>-357.526000</v>
+        <v>-357.52600000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>79005.970959</v>
+        <v>79005.970958999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>21.946103</v>
+        <v>21.946103000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1490.310000</v>
+        <v>1490.31</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-579.183000</v>
+        <v>-579.18299999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>79016.441506</v>
+        <v>79016.441506000003</v>
       </c>
       <c r="BT12" s="1">
         <v>21.949012</v>
       </c>
       <c r="BU12" s="1">
-        <v>1623.300000</v>
+        <v>1623.3</v>
       </c>
       <c r="BV12" s="1">
-        <v>-828.285000</v>
+        <v>-828.28499999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>79027.236899</v>
+        <v>79027.236898999996</v>
       </c>
       <c r="BY12" s="1">
-        <v>21.952010</v>
+        <v>21.952010000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1777.080000</v>
+        <v>1777.08</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1098.650000</v>
+        <v>-1098.6500000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>79039.174644</v>
+        <v>79039.174643999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>21.955326</v>
+        <v>21.955325999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2196.640000</v>
+        <v>2196.64</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1750.540000</v>
+        <v>-1750.54</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>78865.673103</v>
+        <v>78865.673102999994</v>
       </c>
       <c r="B13" s="1">
         <v>21.907131</v>
       </c>
       <c r="C13" s="1">
-        <v>1150.910000</v>
+        <v>1150.9100000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-257.260000</v>
+        <v>-257.26</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>78876.092011</v>
+        <v>78876.092011000001</v>
       </c>
       <c r="G13" s="1">
-        <v>21.910026</v>
+        <v>21.910025999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1172.410000</v>
+        <v>1172.4100000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-216.234000</v>
+        <v>-216.23400000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>78886.585869</v>
+        <v>78886.585869000002</v>
       </c>
       <c r="L13" s="1">
         <v>21.912941</v>
       </c>
       <c r="M13" s="1">
-        <v>1201.090000</v>
+        <v>1201.0899999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.402000</v>
+        <v>-151.40199999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>78897.132517</v>
+        <v>78897.132517000005</v>
       </c>
       <c r="Q13" s="1">
-        <v>21.915870</v>
+        <v>21.915870000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1209.680000</v>
+        <v>1209.68</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.461000</v>
+        <v>-129.46100000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>78907.647489</v>
+        <v>78907.647488999995</v>
       </c>
       <c r="V13" s="1">
-        <v>21.918791</v>
+        <v>21.918790999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1217.340000</v>
+        <v>1217.3399999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.699000</v>
+        <v>-108.699</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>78918.832274</v>
       </c>
       <c r="AA13" s="1">
-        <v>21.921898</v>
+        <v>21.921897999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1225.230000</v>
+        <v>1225.23</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.522300</v>
+        <v>-91.522300000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>78929.632660</v>
+        <v>78929.632660000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>21.924898</v>
+        <v>21.924897999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1230.020000</v>
+        <v>1230.02</v>
       </c>
       <c r="AH13" s="1">
-        <v>-87.014400</v>
+        <v>-87.014399999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>78940.086346</v>
+        <v>78940.086345999996</v>
       </c>
       <c r="AK13" s="1">
         <v>21.927802</v>
       </c>
       <c r="AL13" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.200500</v>
+        <v>-90.200500000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>78950.866888</v>
+        <v>78950.866888000004</v>
       </c>
       <c r="AP13" s="1">
-        <v>21.930796</v>
+        <v>21.930796000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1245.400000</v>
+        <v>1245.4000000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.054000</v>
+        <v>-102.054</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>78962.201499</v>
+        <v>78962.201499000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>21.933945</v>
+        <v>21.933945000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1255.440000</v>
+        <v>1255.44</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.340000</v>
+        <v>-121.34</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>78973.203755</v>
+        <v>78973.203754999995</v>
       </c>
       <c r="AZ13" s="1">
-        <v>21.937001</v>
+        <v>21.937000999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1263.980000</v>
+        <v>1263.98</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.839000</v>
+        <v>-138.839</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>78983.899452</v>
+        <v>78983.899451999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>21.939972</v>
+        <v>21.939972000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1304.380000</v>
+        <v>1304.3800000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.927000</v>
+        <v>-220.92699999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>78994.826815</v>
+        <v>78994.826814999993</v>
       </c>
       <c r="BJ13" s="1">
-        <v>21.943007</v>
+        <v>21.943007000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1374.660000</v>
+        <v>1374.66</v>
       </c>
       <c r="BL13" s="1">
-        <v>-357.538000</v>
+        <v>-357.53800000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>79006.378640</v>
+        <v>79006.378639999995</v>
       </c>
       <c r="BO13" s="1">
         <v>21.946216</v>
       </c>
       <c r="BP13" s="1">
-        <v>1490.300000</v>
+        <v>1490.3</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-579.186000</v>
+        <v>-579.18600000000004</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>79016.868032</v>
+        <v>79016.868031999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>21.949130</v>
+        <v>21.94913</v>
       </c>
       <c r="BU13" s="1">
-        <v>1623.330000</v>
+        <v>1623.33</v>
       </c>
       <c r="BV13" s="1">
-        <v>-828.306000</v>
+        <v>-828.30600000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>79027.663954</v>
+        <v>79027.663954000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>21.952129</v>
+        <v>21.952128999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1777.260000</v>
+        <v>1777.26</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1098.580000</v>
+        <v>-1098.58</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>79039.737075</v>
+        <v>79039.737074999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>21.955483</v>
+        <v>21.955483000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2196.570000</v>
+        <v>2196.5700000000002</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1751.850000</v>
+        <v>-1751.85</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>78866.009832</v>
+        <v>78866.009831999996</v>
       </c>
       <c r="B14" s="1">
         <v>21.907225</v>
       </c>
       <c r="C14" s="1">
-        <v>1151.130000</v>
+        <v>1151.1300000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-257.065000</v>
+        <v>-257.065</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>78876.437227</v>
+        <v>78876.437227000002</v>
       </c>
       <c r="G14" s="1">
         <v>21.910121</v>
       </c>
       <c r="H14" s="1">
-        <v>1173.020000</v>
+        <v>1173.02</v>
       </c>
       <c r="I14" s="1">
-        <v>-216.914000</v>
+        <v>-216.91399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>78886.931103</v>
+        <v>78886.931102999995</v>
       </c>
       <c r="L14" s="1">
-        <v>21.913036</v>
+        <v>21.913036000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1201.520000</v>
+        <v>1201.52</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.320000</v>
+        <v>-151.32</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>78897.828217</v>
+        <v>78897.828217000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>21.916063</v>
+        <v>21.916063000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1209.750000</v>
+        <v>1209.75</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.499000</v>
+        <v>-129.499</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>78908.336931</v>
+        <v>78908.336930999998</v>
       </c>
       <c r="V14" s="1">
         <v>21.918982</v>
       </c>
       <c r="W14" s="1">
-        <v>1217.330000</v>
+        <v>1217.33</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.637000</v>
+        <v>-108.637</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>78919.179972</v>
+        <v>78919.179971999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>21.921994</v>
+        <v>21.921994000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1225.200000</v>
+        <v>1225.2</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.582200</v>
+        <v>-91.5822</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>78929.976420</v>
+        <v>78929.976420000006</v>
       </c>
       <c r="AF14" s="1">
-        <v>21.924993</v>
+        <v>21.924993000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1230.000000</v>
+        <v>1230</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.781200</v>
+        <v>-86.781199999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>78940.434039</v>
       </c>
       <c r="AK14" s="1">
-        <v>21.927898</v>
+        <v>21.927897999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.205400</v>
+        <v>-90.205399999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>78951.544928</v>
+        <v>78951.544928000003</v>
       </c>
       <c r="AP14" s="1">
         <v>21.930985</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1245.390000</v>
+        <v>1245.3900000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.053000</v>
+        <v>-102.053</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>78962.622072</v>
+        <v>78962.622071999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>21.934062</v>
+        <v>21.934062000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1255.460000</v>
+        <v>1255.46</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.349000</v>
+        <v>-121.349</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>78973.612955</v>
+        <v>78973.612955000004</v>
       </c>
       <c r="AZ14" s="1">
-        <v>21.937115</v>
+        <v>21.937114999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1264.000000</v>
+        <v>1264</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.842000</v>
+        <v>-138.84200000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>78984.288812</v>
+        <v>78984.288811999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>21.940080</v>
+        <v>21.940079999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1304.340000</v>
+        <v>1304.3399999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.936000</v>
+        <v>-220.93600000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>78995.216669</v>
+        <v>78995.216669000001</v>
       </c>
       <c r="BJ14" s="1">
         <v>21.943116</v>
       </c>
       <c r="BK14" s="1">
-        <v>1374.650000</v>
+        <v>1374.65</v>
       </c>
       <c r="BL14" s="1">
-        <v>-357.541000</v>
+        <v>-357.541</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>79006.775438</v>
+        <v>79006.775437999997</v>
       </c>
       <c r="BO14" s="1">
         <v>21.946327</v>
       </c>
       <c r="BP14" s="1">
-        <v>1490.350000</v>
+        <v>1490.35</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-579.214000</v>
+        <v>-579.21400000000006</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>79017.298064</v>
+        <v>79017.298064000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>21.949249</v>
+        <v>21.949248999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1623.310000</v>
+        <v>1623.31</v>
       </c>
       <c r="BV14" s="1">
-        <v>-828.362000</v>
+        <v>-828.36199999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>79028.090055</v>
+        <v>79028.090054999993</v>
       </c>
       <c r="BY14" s="1">
         <v>21.952247</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1777.230000</v>
+        <v>1777.23</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1098.600000</v>
+        <v>-1098.5999999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>79040.255890</v>
+        <v>79040.25589</v>
       </c>
       <c r="CD14" s="1">
         <v>21.955627</v>
       </c>
       <c r="CE14" s="1">
-        <v>2196.240000</v>
+        <v>2196.2399999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1749.620000</v>
+        <v>-1749.62</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>78866.352073</v>
+        <v>78866.352073000002</v>
       </c>
       <c r="B15" s="1">
-        <v>21.907320</v>
+        <v>21.907319999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1151.030000</v>
+        <v>1151.03</v>
       </c>
       <c r="D15" s="1">
-        <v>-257.296000</v>
+        <v>-257.29599999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>78877.094923</v>
+        <v>78877.094922999997</v>
       </c>
       <c r="G15" s="1">
         <v>21.910304</v>
       </c>
       <c r="H15" s="1">
-        <v>1172.630000</v>
+        <v>1172.6300000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-217.036000</v>
+        <v>-217.036</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>78887.624491</v>
+        <v>78887.624490999995</v>
       </c>
       <c r="L15" s="1">
-        <v>21.913229</v>
+        <v>21.913229000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1201.370000</v>
+        <v>1201.3699999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.584000</v>
+        <v>-151.584</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>78898.176382</v>
+        <v>78898.176382000005</v>
       </c>
       <c r="Q15" s="1">
-        <v>21.916160</v>
+        <v>21.916160000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1209.710000</v>
+        <v>1209.71</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.517000</v>
+        <v>-129.517</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>78908.680655</v>
+        <v>78908.680655000004</v>
       </c>
       <c r="V15" s="1">
-        <v>21.919078</v>
+        <v>21.919077999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1217.350000</v>
+        <v>1217.3499999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.712000</v>
+        <v>-108.712</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>78919.530525</v>
+        <v>78919.530524999995</v>
       </c>
       <c r="AA15" s="1">
-        <v>21.922092</v>
+        <v>21.922091999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1225.160000</v>
+        <v>1225.1600000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.496100</v>
+        <v>-91.496099999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>78930.649956</v>
+        <v>78930.649955999994</v>
       </c>
       <c r="AF15" s="1">
-        <v>21.925181</v>
+        <v>21.925180999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1229.960000</v>
+        <v>1229.96</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.902500</v>
+        <v>-86.902500000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>78941.098181</v>
+        <v>78941.098180999994</v>
       </c>
       <c r="AK15" s="1">
-        <v>21.928083</v>
+        <v>21.928083000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1237.280000</v>
+        <v>1237.28</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.199300</v>
+        <v>-90.199299999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>78951.950160</v>
+        <v>78951.950159999993</v>
       </c>
       <c r="AP15" s="1">
-        <v>21.931097</v>
+        <v>21.931097000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1245.410000</v>
+        <v>1245.4100000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.061000</v>
+        <v>-102.06100000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>78962.984648</v>
+        <v>78962.984647999998</v>
       </c>
       <c r="AU15" s="1">
-        <v>21.934162</v>
+        <v>21.934162000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1255.460000</v>
+        <v>1255.46</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.371000</v>
+        <v>-121.371</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>78973.998844</v>
+        <v>78973.998844000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>21.937222</v>
+        <v>21.937221999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1264.000000</v>
+        <v>1264</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.841000</v>
+        <v>-138.84100000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>78984.648411</v>
+        <v>78984.648411000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>21.940180</v>
+        <v>21.940180000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1304.360000</v>
+        <v>1304.3599999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.936000</v>
+        <v>-220.93600000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>78995.641277</v>
+        <v>78995.641277000002</v>
       </c>
       <c r="BJ15" s="1">
         <v>21.943234</v>
       </c>
       <c r="BK15" s="1">
-        <v>1374.670000</v>
+        <v>1374.67</v>
       </c>
       <c r="BL15" s="1">
-        <v>-357.542000</v>
+        <v>-357.54199999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>79007.203523</v>
+        <v>79007.203523000004</v>
       </c>
       <c r="BO15" s="1">
-        <v>21.946445</v>
+        <v>21.946445000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1490.400000</v>
+        <v>1490.4</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-579.201000</v>
+        <v>-579.20100000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>79017.710735</v>
+        <v>79017.710735000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>21.949364</v>
+        <v>21.949363999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1623.260000</v>
+        <v>1623.26</v>
       </c>
       <c r="BV15" s="1">
-        <v>-828.423000</v>
+        <v>-828.423</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>79028.509634</v>
+        <v>79028.509634000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>21.952364</v>
+        <v>21.952363999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1777.190000</v>
+        <v>1777.19</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1098.630000</v>
+        <v>-1098.6300000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>79040.773746</v>
+        <v>79040.773746000006</v>
       </c>
       <c r="CD15" s="1">
-        <v>21.955770</v>
+        <v>21.955770000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2196.430000</v>
+        <v>2196.4299999999998</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1750.890000</v>
+        <v>-1750.89</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>78867.035559</v>
+        <v>78867.035558999996</v>
       </c>
       <c r="B16" s="1">
-        <v>21.907510</v>
+        <v>21.907509999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1150.990000</v>
+        <v>1150.99</v>
       </c>
       <c r="D16" s="1">
-        <v>-257.032000</v>
+        <v>-257.03199999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>78877.462458</v>
+        <v>78877.462457999995</v>
       </c>
       <c r="G16" s="1">
-        <v>21.910406</v>
+        <v>21.910405999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>1173.140000</v>
+        <v>1173.1400000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-216.711000</v>
+        <v>-216.71100000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>78887.970235</v>
+        <v>78887.970235000001</v>
       </c>
       <c r="L16" s="1">
         <v>21.913325</v>
       </c>
       <c r="M16" s="1">
-        <v>1201.180000</v>
+        <v>1201.18</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.347000</v>
+        <v>-151.34700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>78898.524078</v>
+        <v>78898.524078000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>21.916257</v>
+        <v>21.916257000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>1209.690000</v>
+        <v>1209.69</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.539000</v>
+        <v>-129.53899999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>78909.023887</v>
+        <v>78909.023887000003</v>
       </c>
       <c r="V16" s="1">
-        <v>21.919173</v>
+        <v>21.919173000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1217.370000</v>
+        <v>1217.3699999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.687000</v>
+        <v>-108.687</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>78920.192835</v>
+        <v>78920.192834999994</v>
       </c>
       <c r="AA16" s="1">
         <v>21.922276</v>
       </c>
       <c r="AB16" s="1">
-        <v>1225.140000</v>
+        <v>1225.1400000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.559500</v>
+        <v>-91.5595</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>78931.005588</v>
@@ -4169,1208 +4585,1208 @@
         <v>21.925279</v>
       </c>
       <c r="AG16" s="1">
-        <v>1230.000000</v>
+        <v>1230</v>
       </c>
       <c r="AH16" s="1">
-        <v>-87.047600</v>
+        <v>-87.047600000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>78941.482581</v>
+        <v>78941.482581000004</v>
       </c>
       <c r="AK16" s="1">
-        <v>21.928190</v>
+        <v>21.928190000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.191800</v>
+        <v>-90.191800000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>78952.334071</v>
+        <v>78952.334071000005</v>
       </c>
       <c r="AP16" s="1">
-        <v>21.931204</v>
+        <v>21.931204000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1245.410000</v>
+        <v>1245.4100000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.068000</v>
+        <v>-102.068</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>78963.352183</v>
+        <v>78963.352182999995</v>
       </c>
       <c r="AU16" s="1">
-        <v>21.934264</v>
+        <v>21.934263999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1255.470000</v>
+        <v>1255.47</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.356000</v>
+        <v>-121.35599999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>78974.358409</v>
+        <v>78974.358408999993</v>
       </c>
       <c r="AZ16" s="1">
-        <v>21.937322</v>
+        <v>21.937322000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1263.980000</v>
+        <v>1263.98</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.838000</v>
+        <v>-138.83799999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>78985.087867</v>
+        <v>78985.087866999995</v>
       </c>
       <c r="BE16" s="1">
-        <v>21.940302</v>
+        <v>21.940301999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1304.360000</v>
+        <v>1304.3599999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.941000</v>
+        <v>-220.941</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>78995.965660</v>
+        <v>78995.965660000002</v>
       </c>
       <c r="BJ16" s="1">
         <v>21.943324</v>
       </c>
       <c r="BK16" s="1">
-        <v>1374.640000</v>
+        <v>1374.64</v>
       </c>
       <c r="BL16" s="1">
-        <v>-357.515000</v>
+        <v>-357.51499999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>79007.595325</v>
+        <v>79007.595325000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>21.946554</v>
+        <v>21.946553999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1490.320000</v>
+        <v>1490.32</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-579.147000</v>
+        <v>-579.14700000000005</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>79018.129855</v>
+        <v>79018.129855000007</v>
       </c>
       <c r="BT16" s="1">
-        <v>21.949481</v>
+        <v>21.949480999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1623.310000</v>
+        <v>1623.31</v>
       </c>
       <c r="BV16" s="1">
-        <v>-828.518000</v>
+        <v>-828.51800000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>79028.965952</v>
+        <v>79028.965951999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>21.952491</v>
+        <v>21.952490999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1777.060000</v>
+        <v>1777.06</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1098.610000</v>
+        <v>-1098.6099999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>79041.328736</v>
+        <v>79041.328735999996</v>
       </c>
       <c r="CD16" s="1">
-        <v>21.955925</v>
+        <v>21.955925000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2196.730000</v>
+        <v>2196.73</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1751.840000</v>
+        <v>-1751.84</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>78867.380310</v>
+        <v>78867.380309999993</v>
       </c>
       <c r="B17" s="1">
-        <v>21.907606</v>
+        <v>21.907606000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1151.070000</v>
+        <v>1151.07</v>
       </c>
       <c r="D17" s="1">
-        <v>-257.389000</v>
+        <v>-257.38900000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>78877.821562</v>
+        <v>78877.821561999997</v>
       </c>
       <c r="G17" s="1">
-        <v>21.910506</v>
+        <v>21.910506000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1172.620000</v>
+        <v>1172.6199999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-216.671000</v>
+        <v>-216.67099999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>78888.315915</v>
+        <v>78888.315914999999</v>
       </c>
       <c r="L17" s="1">
         <v>21.913421</v>
       </c>
       <c r="M17" s="1">
-        <v>1201.650000</v>
+        <v>1201.6500000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.646000</v>
+        <v>-151.64599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>78899.189212</v>
+        <v>78899.189211999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>21.916441</v>
+        <v>21.916440999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1209.650000</v>
+        <v>1209.6500000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.542000</v>
+        <v>-129.542</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>78909.696959</v>
+        <v>78909.696958999994</v>
       </c>
       <c r="V17" s="1">
-        <v>21.919360</v>
+        <v>21.919360000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1217.220000</v>
+        <v>1217.22</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.589000</v>
+        <v>-108.589</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>78920.575744</v>
+        <v>78920.575744000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>21.922382</v>
+        <v>21.922381999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.499900</v>
+        <v>-91.499899999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>78931.351794</v>
+        <v>78931.351794000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>21.925375</v>
+        <v>21.925374999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1229.910000</v>
+        <v>1229.9100000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.788500</v>
+        <v>-86.788499999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>78941.830276</v>
+        <v>78941.830275999993</v>
       </c>
       <c r="AK17" s="1">
         <v>21.928286</v>
       </c>
       <c r="AL17" s="1">
-        <v>1237.320000</v>
+        <v>1237.32</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.186400</v>
+        <v>-90.186400000000006</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>78952.693158</v>
+        <v>78952.693157999995</v>
       </c>
       <c r="AP17" s="1">
-        <v>21.931304</v>
+        <v>21.931304000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.069000</v>
+        <v>-102.069</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>78963.772790</v>
+        <v>78963.772790000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>21.934381</v>
+        <v>21.934380999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>1255.470000</v>
+        <v>1255.47</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.386000</v>
+        <v>-121.386</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>78974.782984</v>
+        <v>78974.782984000005</v>
       </c>
       <c r="AZ17" s="1">
-        <v>21.937440</v>
+        <v>21.937439999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1263.990000</v>
+        <v>1263.99</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.825000</v>
+        <v>-138.82499999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>78985.373103</v>
+        <v>78985.373103000005</v>
       </c>
       <c r="BE17" s="1">
-        <v>21.940381</v>
+        <v>21.940380999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1304.380000</v>
+        <v>1304.3800000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.925000</v>
+        <v>-220.92500000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>78996.342124</v>
+        <v>78996.342124000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>21.943428</v>
+        <v>21.943428000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1374.660000</v>
+        <v>1374.66</v>
       </c>
       <c r="BL17" s="1">
-        <v>-357.557000</v>
+        <v>-357.55700000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>79008.016924</v>
+        <v>79008.016923999996</v>
       </c>
       <c r="BO17" s="1">
-        <v>21.946671</v>
+        <v>21.946670999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1490.290000</v>
+        <v>1490.29</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-579.204000</v>
+        <v>-579.20399999999995</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>79018.552943</v>
+        <v>79018.552943000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>21.949598</v>
+        <v>21.949598000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1623.220000</v>
+        <v>1623.22</v>
       </c>
       <c r="BV17" s="1">
-        <v>-828.548000</v>
+        <v>-828.548</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>79029.411857</v>
+        <v>79029.411856999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>21.952614</v>
+        <v>21.952614000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1777.040000</v>
+        <v>1777.04</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1098.730000</v>
+        <v>-1098.73</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>79041.855488</v>
+        <v>79041.855488000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>21.956071</v>
+        <v>21.956071000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2196.250000</v>
+        <v>2196.25</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1749.720000</v>
+        <v>-1749.72</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>78867.722022</v>
+        <v>78867.722022000002</v>
       </c>
       <c r="B18" s="1">
-        <v>21.907701</v>
+        <v>21.907700999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1151.220000</v>
+        <v>1151.22</v>
       </c>
       <c r="D18" s="1">
-        <v>-257.283000</v>
+        <v>-257.28300000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>78878.487689</v>
+        <v>78878.487689000001</v>
       </c>
       <c r="G18" s="1">
         <v>21.910691</v>
       </c>
       <c r="H18" s="1">
-        <v>1173.130000</v>
+        <v>1173.1300000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-216.984000</v>
+        <v>-216.98400000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>78888.959722</v>
       </c>
       <c r="L18" s="1">
-        <v>21.913600</v>
+        <v>21.913599999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1201.460000</v>
+        <v>1201.46</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.689000</v>
+        <v>-151.68899999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>78899.569148</v>
+        <v>78899.569147999995</v>
       </c>
       <c r="Q18" s="1">
-        <v>21.916547</v>
+        <v>21.916547000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1209.660000</v>
+        <v>1209.6600000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.493000</v>
+        <v>-129.49299999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>78910.060526</v>
+        <v>78910.060526000001</v>
       </c>
       <c r="V18" s="1">
-        <v>21.919461</v>
+        <v>21.919460999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>1217.330000</v>
+        <v>1217.33</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.665000</v>
+        <v>-108.66500000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>78920.926415</v>
+        <v>78920.926414999994</v>
       </c>
       <c r="AA18" s="1">
-        <v>21.922480</v>
+        <v>21.92248</v>
       </c>
       <c r="AB18" s="1">
-        <v>1225.120000</v>
+        <v>1225.1199999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.652500</v>
+        <v>-91.652500000000003</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>78931.694033</v>
+        <v>78931.694033000007</v>
       </c>
       <c r="AF18" s="1">
-        <v>21.925471</v>
+        <v>21.925471000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>1230.030000</v>
+        <v>1230.03</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.921900</v>
+        <v>-86.921899999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>78942.177475</v>
+        <v>78942.177475000004</v>
       </c>
       <c r="AK18" s="1">
         <v>21.928383</v>
       </c>
       <c r="AL18" s="1">
-        <v>1237.320000</v>
+        <v>1237.32</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.185900</v>
+        <v>-90.185900000000004</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>78953.110827</v>
+        <v>78953.110826999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>21.931420</v>
+        <v>21.931419999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1245.390000</v>
+        <v>1245.3900000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.041000</v>
+        <v>-102.041</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>78964.079814</v>
+        <v>78964.079813999997</v>
       </c>
       <c r="AU18" s="1">
-        <v>21.934467</v>
+        <v>21.934467000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1255.460000</v>
+        <v>1255.46</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.349000</v>
+        <v>-121.349</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>78975.075624</v>
+        <v>78975.075624000005</v>
       </c>
       <c r="AZ18" s="1">
         <v>21.937521</v>
       </c>
       <c r="BA18" s="1">
-        <v>1263.990000</v>
+        <v>1263.99</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.839000</v>
+        <v>-138.839</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>78985.738153</v>
+        <v>78985.738152999998</v>
       </c>
       <c r="BE18" s="1">
         <v>21.940483</v>
       </c>
       <c r="BF18" s="1">
-        <v>1304.350000</v>
+        <v>1304.3499999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.930000</v>
+        <v>-220.93</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>78996.725995</v>
+        <v>78996.725995000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>21.943535</v>
+        <v>21.943535000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1374.660000</v>
+        <v>1374.66</v>
       </c>
       <c r="BL18" s="1">
-        <v>-357.515000</v>
+        <v>-357.51499999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>79008.411740</v>
+        <v>79008.411739999996</v>
       </c>
       <c r="BO18" s="1">
-        <v>21.946781</v>
+        <v>21.946781000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1490.320000</v>
+        <v>1490.32</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-579.205000</v>
+        <v>-579.20500000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>79018.984958</v>
+        <v>79018.984958000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>21.949718</v>
+        <v>21.949718000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1623.270000</v>
+        <v>1623.27</v>
       </c>
       <c r="BV18" s="1">
-        <v>-828.549000</v>
+        <v>-828.54899999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>79029.845359</v>
+        <v>79029.845358999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>21.952735</v>
+        <v>21.952735000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1777.070000</v>
+        <v>1777.07</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1098.750000</v>
+        <v>-1098.75</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>79042.374799</v>
+        <v>79042.374798999997</v>
       </c>
       <c r="CD18" s="1">
         <v>21.956215</v>
       </c>
       <c r="CE18" s="1">
-        <v>2194.260000</v>
+        <v>2194.2600000000002</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1750.250000</v>
+        <v>-1750.25</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>78868.376277</v>
+        <v>78868.376277000003</v>
       </c>
       <c r="B19" s="1">
-        <v>21.907882</v>
+        <v>21.907882000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1150.980000</v>
+        <v>1150.98</v>
       </c>
       <c r="D19" s="1">
-        <v>-257.302000</v>
+        <v>-257.30200000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>78878.851257</v>
+        <v>78878.851257000002</v>
       </c>
       <c r="G19" s="1">
-        <v>21.910792</v>
+        <v>21.910792000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1172.750000</v>
+        <v>1172.75</v>
       </c>
       <c r="I19" s="1">
-        <v>-216.679000</v>
+        <v>-216.679</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>78889.352100</v>
+        <v>78889.352100000004</v>
       </c>
       <c r="L19" s="1">
-        <v>21.913709</v>
+        <v>21.913709000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1201.390000</v>
+        <v>1201.3900000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.514000</v>
+        <v>-151.51400000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>78899.919323</v>
+        <v>78899.919322999995</v>
       </c>
       <c r="Q19" s="1">
-        <v>21.916644</v>
+        <v>21.916644000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1209.670000</v>
+        <v>1209.67</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.467000</v>
+        <v>-129.46700000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>78910.427071</v>
+        <v>78910.427070999998</v>
       </c>
       <c r="V19" s="1">
         <v>21.919563</v>
       </c>
       <c r="W19" s="1">
-        <v>1217.420000</v>
+        <v>1217.42</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.610000</v>
+        <v>-108.61</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>78921.280401</v>
+        <v>78921.280400999996</v>
       </c>
       <c r="AA19" s="1">
-        <v>21.922578</v>
+        <v>21.922578000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1225.150000</v>
+        <v>1225.1500000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.331200</v>
+        <v>-91.331199999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>78932.118609</v>
+        <v>78932.118608999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>21.925589</v>
+        <v>21.925588999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1229.970000</v>
+        <v>1229.97</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.870300</v>
+        <v>-86.8703</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>78942.608994</v>
+        <v>78942.608993999995</v>
       </c>
       <c r="AK19" s="1">
-        <v>21.928502</v>
+        <v>21.928502000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>1237.350000</v>
+        <v>1237.3499999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.192400</v>
+        <v>-90.192400000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>78953.413349</v>
+        <v>78953.413348999995</v>
       </c>
       <c r="AP19" s="1">
         <v>21.931504</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1245.400000</v>
+        <v>1245.4000000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.029000</v>
+        <v>-102.029</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>78964.443047</v>
+        <v>78964.443046999993</v>
       </c>
       <c r="AU19" s="1">
-        <v>21.934568</v>
+        <v>21.934567999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1255.460000</v>
+        <v>1255.46</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.362000</v>
+        <v>-121.36199999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>78975.435733</v>
+        <v>78975.435733000006</v>
       </c>
       <c r="AZ19" s="1">
         <v>21.937621</v>
       </c>
       <c r="BA19" s="1">
-        <v>1264.010000</v>
+        <v>1264.01</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.851000</v>
+        <v>-138.851</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>78986.096233</v>
+        <v>78986.096233000004</v>
       </c>
       <c r="BE19" s="1">
-        <v>21.940582</v>
+        <v>21.940581999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1304.360000</v>
+        <v>1304.3599999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.930000</v>
+        <v>-220.93</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>78997.489834</v>
+        <v>78997.489834000007</v>
       </c>
       <c r="BJ19" s="1">
-        <v>21.943747</v>
+        <v>21.943746999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1374.660000</v>
+        <v>1374.66</v>
       </c>
       <c r="BL19" s="1">
-        <v>-357.516000</v>
+        <v>-357.51600000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>79008.835323</v>
+        <v>79008.835323000007</v>
       </c>
       <c r="BO19" s="1">
-        <v>21.946899</v>
+        <v>21.946898999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1490.330000</v>
+        <v>1490.33</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-579.197000</v>
+        <v>-579.197</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>79019.410525</v>
+        <v>79019.410524999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>21.949836</v>
+        <v>21.949836000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1623.260000</v>
+        <v>1623.26</v>
       </c>
       <c r="BV19" s="1">
-        <v>-828.563000</v>
+        <v>-828.56299999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>79030.264511</v>
+        <v>79030.264511000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>21.952851</v>
+        <v>21.952850999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1777.240000</v>
+        <v>1777.24</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1098.470000</v>
+        <v>-1098.47</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>79042.893118</v>
+        <v>79042.893118000007</v>
       </c>
       <c r="CD19" s="1">
-        <v>21.956359</v>
+        <v>21.956358999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2195.040000</v>
+        <v>2195.04</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1751.870000</v>
+        <v>-1751.87</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>78868.747749</v>
+        <v>78868.747749000002</v>
       </c>
       <c r="B20" s="1">
         <v>21.907985</v>
       </c>
       <c r="C20" s="1">
-        <v>1151.100000</v>
+        <v>1151.0999999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-257.099000</v>
+        <v>-257.09899999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>78879.202919</v>
+        <v>78879.202919000003</v>
       </c>
       <c r="G20" s="1">
-        <v>21.910890</v>
+        <v>21.910889999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>1172.860000</v>
+        <v>1172.8599999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-216.701000</v>
+        <v>-216.70099999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>78889.695785</v>
+        <v>78889.695785000004</v>
       </c>
       <c r="L20" s="1">
-        <v>21.913804</v>
+        <v>21.913803999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1201.540000</v>
+        <v>1201.54</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.216000</v>
+        <v>-151.21600000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>78900.271483</v>
+        <v>78900.271483000004</v>
       </c>
       <c r="Q20" s="1">
-        <v>21.916742</v>
+        <v>21.916741999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1209.670000</v>
+        <v>1209.67</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.505000</v>
+        <v>-129.505</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>78911.047938</v>
+        <v>78911.047938000003</v>
       </c>
       <c r="V20" s="1">
         <v>21.919736</v>
       </c>
       <c r="W20" s="1">
-        <v>1217.320000</v>
+        <v>1217.32</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.667000</v>
+        <v>-108.667</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>78921.702624</v>
+        <v>78921.702623999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>21.922695</v>
+        <v>21.922695000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1225.080000</v>
+        <v>1225.08</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.473000</v>
+        <v>-91.472999999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>78932.381490</v>
+        <v>78932.38149</v>
       </c>
       <c r="AF20" s="1">
-        <v>21.925662</v>
+        <v>21.925661999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1230.130000</v>
+        <v>1230.1300000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.976700</v>
+        <v>-86.976699999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>78942.888244</v>
+        <v>78942.888244000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>21.928580</v>
+        <v>21.92858</v>
       </c>
       <c r="AL20" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.197900</v>
+        <v>-90.197900000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>78953.774436</v>
+        <v>78953.774436000007</v>
       </c>
       <c r="AP20" s="1">
         <v>21.931604</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1245.390000</v>
+        <v>1245.3900000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.054000</v>
+        <v>-102.054</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>78964.807941</v>
+        <v>78964.807941000006</v>
       </c>
       <c r="AU20" s="1">
         <v>21.934669</v>
       </c>
       <c r="AV20" s="1">
-        <v>1255.470000</v>
+        <v>1255.47</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.353000</v>
+        <v>-121.35299999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>78975.795816</v>
+        <v>78975.795815999998</v>
       </c>
       <c r="AZ20" s="1">
         <v>21.937721</v>
       </c>
       <c r="BA20" s="1">
-        <v>1263.960000</v>
+        <v>1263.96</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.833000</v>
+        <v>-138.833</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>78986.817417</v>
+        <v>78986.817416999998</v>
       </c>
       <c r="BE20" s="1">
         <v>21.940783</v>
       </c>
       <c r="BF20" s="1">
-        <v>1304.360000</v>
+        <v>1304.3599999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.915000</v>
+        <v>-220.91499999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>78997.864322</v>
+        <v>78997.864321999994</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.943851</v>
+        <v>21.943850999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1374.670000</v>
+        <v>1374.67</v>
       </c>
       <c r="BL20" s="1">
-        <v>-357.524000</v>
+        <v>-357.524</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>79009.231659</v>
+        <v>79009.231658999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>21.947009</v>
+        <v>21.947009000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1490.330000</v>
+        <v>1490.33</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-579.225000</v>
+        <v>-579.22500000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>79019.824189</v>
+        <v>79019.824189000006</v>
       </c>
       <c r="BT20" s="1">
-        <v>21.949951</v>
+        <v>21.949950999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1623.260000</v>
+        <v>1623.26</v>
       </c>
       <c r="BV20" s="1">
-        <v>-828.599000</v>
+        <v>-828.59900000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>79031.008014</v>
+        <v>79031.008014000006</v>
       </c>
       <c r="BY20" s="1">
-        <v>21.953058</v>
+        <v>21.953057999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1777.160000</v>
+        <v>1777.16</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1098.670000</v>
+        <v>-1098.67</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>79043.723917</v>
+        <v>79043.723916999996</v>
       </c>
       <c r="CD20" s="1">
-        <v>21.956590</v>
+        <v>21.956589999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>2196.490000</v>
+        <v>2196.4899999999998</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1750.960000</v>
+        <v>-1750.96</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>78869.090495</v>
+        <v>78869.090494999997</v>
       </c>
       <c r="B21" s="1">
-        <v>21.908081</v>
+        <v>21.908080999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1151.150000</v>
+        <v>1151.1500000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-257.307000</v>
+        <v>-257.30700000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>78879.544662</v>
@@ -5379,1269 +5795,1269 @@
         <v>21.910985</v>
       </c>
       <c r="H21" s="1">
-        <v>1172.570000</v>
+        <v>1172.57</v>
       </c>
       <c r="I21" s="1">
-        <v>-216.558000</v>
+        <v>-216.55799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>78890.043977</v>
+        <v>78890.043976999994</v>
       </c>
       <c r="L21" s="1">
-        <v>21.913901</v>
+        <v>21.913900999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1201.260000</v>
+        <v>1201.26</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.439000</v>
+        <v>-151.43899999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>78900.694108</v>
+        <v>78900.694107999996</v>
       </c>
       <c r="Q21" s="1">
-        <v>21.916859</v>
+        <v>21.916858999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1209.700000</v>
+        <v>1209.7</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.567000</v>
+        <v>-129.56700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>78911.460268</v>
+        <v>78911.460267999995</v>
       </c>
       <c r="V21" s="1">
-        <v>21.919850</v>
+        <v>21.91985</v>
       </c>
       <c r="W21" s="1">
-        <v>1217.380000</v>
+        <v>1217.3800000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.704000</v>
+        <v>-108.70399999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>78921.980878</v>
+        <v>78921.980878000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>21.922772</v>
+        <v>21.922771999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1225.140000</v>
+        <v>1225.1400000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.468600</v>
+        <v>-91.468599999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>78932.730177</v>
+        <v>78932.730177000005</v>
       </c>
       <c r="AF21" s="1">
-        <v>21.925758</v>
+        <v>21.925757999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>1229.990000</v>
+        <v>1229.99</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.970600</v>
+        <v>-86.970600000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>78943.233954</v>
+        <v>78943.233953999996</v>
       </c>
       <c r="AK21" s="1">
-        <v>21.928676</v>
+        <v>21.928675999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1237.310000</v>
+        <v>1237.31</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.214700</v>
+        <v>-90.214699999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>78954.133043</v>
+        <v>78954.133042999994</v>
       </c>
       <c r="AP21" s="1">
         <v>21.931704</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1245.420000</v>
+        <v>1245.42</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.049000</v>
+        <v>-102.04900000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>78965.537556</v>
+        <v>78965.537555999996</v>
       </c>
       <c r="AU21" s="1">
-        <v>21.934872</v>
+        <v>21.934871999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1255.460000</v>
+        <v>1255.46</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.344000</v>
+        <v>-121.34399999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>78976.509558</v>
+        <v>78976.509558000005</v>
       </c>
       <c r="AZ21" s="1">
-        <v>21.937919</v>
+        <v>21.937919000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1263.990000</v>
+        <v>1263.99</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.851000</v>
+        <v>-138.851</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>78987.179497</v>
+        <v>78987.179497000005</v>
       </c>
       <c r="BE21" s="1">
-        <v>21.940883</v>
+        <v>21.940882999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1304.370000</v>
+        <v>1304.3699999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.920000</v>
+        <v>-220.92</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>78998.239995</v>
+        <v>78998.239994999996</v>
       </c>
       <c r="BJ21" s="1">
         <v>21.943956</v>
       </c>
       <c r="BK21" s="1">
-        <v>1374.670000</v>
+        <v>1374.67</v>
       </c>
       <c r="BL21" s="1">
-        <v>-357.525000</v>
+        <v>-357.52499999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>79009.646779</v>
+        <v>79009.646779000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>21.947124</v>
+        <v>21.947123999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1490.310000</v>
+        <v>1490.31</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-579.214000</v>
+        <v>-579.21400000000006</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>79020.562740</v>
+        <v>79020.562739999994</v>
       </c>
       <c r="BT21" s="1">
         <v>21.950156</v>
       </c>
       <c r="BU21" s="1">
-        <v>1623.340000</v>
+        <v>1623.34</v>
       </c>
       <c r="BV21" s="1">
-        <v>-828.673000</v>
+        <v>-828.673</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>79031.132478</v>
       </c>
       <c r="BY21" s="1">
-        <v>21.953092</v>
+        <v>21.953092000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1777.200000</v>
+        <v>1777.2</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1098.500000</v>
+        <v>-1098.5</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>79043.929261</v>
+        <v>79043.929260999997</v>
       </c>
       <c r="CD21" s="1">
         <v>21.956647</v>
       </c>
       <c r="CE21" s="1">
-        <v>2195.230000</v>
+        <v>2195.23</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1749.840000</v>
+        <v>-1749.84</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>78869.428756</v>
+        <v>78869.428755999994</v>
       </c>
       <c r="B22" s="1">
         <v>21.908175</v>
       </c>
       <c r="C22" s="1">
-        <v>1150.990000</v>
+        <v>1150.99</v>
       </c>
       <c r="D22" s="1">
-        <v>-257.336000</v>
+        <v>-257.33600000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>78879.970262</v>
+        <v>78879.970262000003</v>
       </c>
       <c r="G22" s="1">
-        <v>21.911103</v>
+        <v>21.911103000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1172.340000</v>
+        <v>1172.3399999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-216.625000</v>
+        <v>-216.625</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>78890.475000</v>
+        <v>78890.475000000006</v>
       </c>
       <c r="L22" s="1">
-        <v>21.914021</v>
+        <v>21.914021000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>1201.600000</v>
+        <v>1201.5999999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.543000</v>
+        <v>-151.54300000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>78900.973855</v>
+        <v>78900.973855000004</v>
       </c>
       <c r="Q22" s="1">
-        <v>21.916937</v>
+        <v>21.916937000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1209.780000</v>
+        <v>1209.78</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.587000</v>
+        <v>-129.58699999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>78911.809916</v>
+        <v>78911.809915999998</v>
       </c>
       <c r="V22" s="1">
-        <v>21.919947</v>
+        <v>21.919947000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1217.230000</v>
+        <v>1217.23</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.598000</v>
+        <v>-108.598</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>78922.331088</v>
+        <v>78922.331088000006</v>
       </c>
       <c r="AA22" s="1">
-        <v>21.922870</v>
+        <v>21.92287</v>
       </c>
       <c r="AB22" s="1">
-        <v>1225.220000</v>
+        <v>1225.22</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.481900</v>
+        <v>-91.481899999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>78933.070433</v>
+        <v>78933.070433000001</v>
       </c>
       <c r="AF22" s="1">
         <v>21.925853</v>
       </c>
       <c r="AG22" s="1">
-        <v>1230.150000</v>
+        <v>1230.1500000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.863100</v>
+        <v>-86.863100000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>78943.585122</v>
+        <v>78943.585122000004</v>
       </c>
       <c r="AK22" s="1">
-        <v>21.928774</v>
+        <v>21.928774000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1237.310000</v>
+        <v>1237.31</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.215200</v>
+        <v>-90.215199999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>78954.851747</v>
+        <v>78954.851746999993</v>
       </c>
       <c r="AP22" s="1">
-        <v>21.931903</v>
+        <v>21.931902999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1245.400000</v>
+        <v>1245.4000000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.048000</v>
+        <v>-102.048</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>78965.930421</v>
+        <v>78965.930420999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>21.934981</v>
+        <v>21.934981000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1255.480000</v>
+        <v>1255.48</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.350000</v>
+        <v>-121.35</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>78976.868165</v>
+        <v>78976.868165000007</v>
       </c>
       <c r="AZ22" s="1">
-        <v>21.938019</v>
+        <v>21.938019000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1263.970000</v>
+        <v>1263.97</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.841000</v>
+        <v>-138.84100000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>78987.539095</v>
       </c>
       <c r="BE22" s="1">
-        <v>21.940983</v>
+        <v>21.940982999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1304.380000</v>
+        <v>1304.3800000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.926000</v>
+        <v>-220.92599999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>78998.953040</v>
+        <v>78998.953039999993</v>
       </c>
       <c r="BJ22" s="1">
-        <v>21.944154</v>
+        <v>21.944154000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1374.670000</v>
+        <v>1374.67</v>
       </c>
       <c r="BL22" s="1">
-        <v>-357.528000</v>
+        <v>-357.52800000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>79010.362506</v>
+        <v>79010.362506000005</v>
       </c>
       <c r="BO22" s="1">
-        <v>21.947323</v>
+        <v>21.947323000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1490.350000</v>
+        <v>1490.35</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-579.242000</v>
+        <v>-579.24199999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>79020.678796</v>
+        <v>79020.678795999993</v>
       </c>
       <c r="BT22" s="1">
-        <v>21.950189</v>
+        <v>21.950189000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1623.330000</v>
+        <v>1623.33</v>
       </c>
       <c r="BV22" s="1">
-        <v>-828.665000</v>
+        <v>-828.66499999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>79031.560526</v>
+        <v>79031.560526000001</v>
       </c>
       <c r="BY22" s="1">
         <v>21.953211</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1777.080000</v>
+        <v>1777.08</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1098.740000</v>
+        <v>-1098.74</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>79044.445596</v>
+        <v>79044.445596000005</v>
       </c>
       <c r="CD22" s="1">
-        <v>21.956790</v>
+        <v>21.956790000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>2195.370000</v>
+        <v>2195.37</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1749.740000</v>
+        <v>-1749.74</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>78869.850851</v>
+        <v>78869.850850999996</v>
       </c>
       <c r="B23" s="1">
-        <v>21.908292</v>
+        <v>21.908291999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1151.080000</v>
+        <v>1151.08</v>
       </c>
       <c r="D23" s="1">
-        <v>-257.452000</v>
+        <v>-257.452</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>78880.240549</v>
+        <v>78880.240548999995</v>
       </c>
       <c r="G23" s="1">
         <v>21.911178</v>
       </c>
       <c r="H23" s="1">
-        <v>1173.000000</v>
+        <v>1173</v>
       </c>
       <c r="I23" s="1">
-        <v>-217.265000</v>
+        <v>-217.26499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>78890.751767</v>
+        <v>78890.751766999994</v>
       </c>
       <c r="L23" s="1">
-        <v>21.914098</v>
+        <v>21.914097999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1201.310000</v>
+        <v>1201.31</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.592000</v>
+        <v>-151.59200000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>78901.321018</v>
+        <v>78901.321018000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>21.917034</v>
+        <v>21.917034000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1209.700000</v>
+        <v>1209.7</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.515000</v>
+        <v>-129.51499999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>78912.151660</v>
+        <v>78912.151660000003</v>
       </c>
       <c r="V23" s="1">
-        <v>21.920042</v>
+        <v>21.920041999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1217.350000</v>
+        <v>1217.3499999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.839000</v>
+        <v>-108.839</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>78922.680237</v>
+        <v>78922.680236999993</v>
       </c>
       <c r="AA23" s="1">
         <v>21.922967</v>
       </c>
       <c r="AB23" s="1">
-        <v>1225.120000</v>
+        <v>1225.1199999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.549600</v>
+        <v>-91.549599999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>78933.756399</v>
+        <v>78933.756399000005</v>
       </c>
       <c r="AF23" s="1">
         <v>21.926043</v>
       </c>
       <c r="AG23" s="1">
-        <v>1230.150000</v>
+        <v>1230.1500000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.823500</v>
+        <v>-86.823499999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>78944.290432</v>
+        <v>78944.290431999994</v>
       </c>
       <c r="AK23" s="1">
-        <v>21.928970</v>
+        <v>21.92897</v>
       </c>
       <c r="AL23" s="1">
-        <v>1237.350000</v>
+        <v>1237.3499999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.192100</v>
+        <v>-90.192099999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>78955.216307</v>
+        <v>78955.216306999995</v>
       </c>
       <c r="AP23" s="1">
         <v>21.932005</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1245.390000</v>
+        <v>1245.3900000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.064000</v>
+        <v>-102.06399999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>78966.298451</v>
+        <v>78966.298450999995</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.935083</v>
+        <v>21.935082999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1255.460000</v>
+        <v>1255.46</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.360000</v>
+        <v>-121.36</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>78977.228299</v>
+        <v>78977.228298999995</v>
       </c>
       <c r="AZ23" s="1">
         <v>21.938119</v>
       </c>
       <c r="BA23" s="1">
-        <v>1264.010000</v>
+        <v>1264.01</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.860000</v>
+        <v>-138.86000000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>78988.220137</v>
+        <v>78988.220136999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>21.941172</v>
+        <v>21.941172000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1304.350000</v>
+        <v>1304.3499999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.931000</v>
+        <v>-220.93100000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>78999.392984</v>
+        <v>78999.392984000006</v>
       </c>
       <c r="BJ23" s="1">
-        <v>21.944276</v>
+        <v>21.944275999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1374.670000</v>
+        <v>1374.67</v>
       </c>
       <c r="BL23" s="1">
-        <v>-357.534000</v>
+        <v>-357.53399999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>79010.485017</v>
+        <v>79010.485016999999</v>
       </c>
       <c r="BO23" s="1">
         <v>21.947357</v>
       </c>
       <c r="BP23" s="1">
-        <v>1490.320000</v>
+        <v>1490.32</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-579.187000</v>
+        <v>-579.18700000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>79021.118747</v>
       </c>
       <c r="BT23" s="1">
-        <v>21.950311</v>
+        <v>21.950310999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1623.290000</v>
+        <v>1623.29</v>
       </c>
       <c r="BV23" s="1">
-        <v>-828.705000</v>
+        <v>-828.70500000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>79031.992540</v>
+        <v>79031.992540000007</v>
       </c>
       <c r="BY23" s="1">
-        <v>21.953331</v>
+        <v>21.953330999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1777.220000</v>
+        <v>1777.22</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1098.610000</v>
+        <v>-1098.6099999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>79044.998674</v>
+        <v>79044.998674000002</v>
       </c>
       <c r="CD23" s="1">
         <v>21.956944</v>
       </c>
       <c r="CE23" s="1">
-        <v>2194.750000</v>
+        <v>2194.75</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1750.370000</v>
+        <v>-1750.37</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>78870.121668</v>
+        <v>78870.121668000007</v>
       </c>
       <c r="B24" s="1">
-        <v>21.908367</v>
+        <v>21.908366999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>1151.090000</v>
+        <v>1151.0899999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-257.335000</v>
+        <v>-257.33499999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>78880.584277</v>
+        <v>78880.584277000002</v>
       </c>
       <c r="G24" s="1">
-        <v>21.911273</v>
+        <v>21.911273000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1172.950000</v>
+        <v>1172.95</v>
       </c>
       <c r="I24" s="1">
-        <v>-216.282000</v>
+        <v>-216.28200000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>78891.100455</v>
+        <v>78891.100455000007</v>
       </c>
       <c r="L24" s="1">
-        <v>21.914195</v>
+        <v>21.914194999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1201.410000</v>
+        <v>1201.4100000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.660000</v>
+        <v>-151.66</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>78901.672712</v>
       </c>
       <c r="Q24" s="1">
-        <v>21.917131</v>
+        <v>21.917131000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1209.680000</v>
+        <v>1209.68</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.451000</v>
+        <v>-129.45099999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>78912.836634</v>
+        <v>78912.836634000007</v>
       </c>
       <c r="V24" s="1">
-        <v>21.920232</v>
+        <v>21.920231999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1217.280000</v>
+        <v>1217.28</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.519000</v>
+        <v>-108.51900000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>78923.374140</v>
+        <v>78923.37414</v>
       </c>
       <c r="AA24" s="1">
-        <v>21.923159</v>
+        <v>21.923158999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.576200</v>
+        <v>-91.5762</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>78934.102639</v>
+        <v>78934.102639000004</v>
       </c>
       <c r="AF24" s="1">
-        <v>21.926140</v>
+        <v>21.92614</v>
       </c>
       <c r="AG24" s="1">
-        <v>1229.940000</v>
+        <v>1229.94</v>
       </c>
       <c r="AH24" s="1">
-        <v>-87.111600</v>
+        <v>-87.111599999999996</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>78944.627217</v>
+        <v>78944.627217000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>21.929063</v>
+        <v>21.929062999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1237.350000</v>
+        <v>1237.3499999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.190100</v>
+        <v>-90.190100000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>78955.575906</v>
+        <v>78955.575905999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>21.932104</v>
+        <v>21.932103999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1245.390000</v>
+        <v>1245.3900000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.060000</v>
+        <v>-102.06</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>78966.975955</v>
+        <v>78966.975955000002</v>
       </c>
       <c r="AU24" s="1">
         <v>21.935271</v>
       </c>
       <c r="AV24" s="1">
-        <v>1255.460000</v>
+        <v>1255.46</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.362000</v>
+        <v>-121.36199999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>78977.979241</v>
+        <v>78977.979240999994</v>
       </c>
       <c r="AZ24" s="1">
-        <v>21.938328</v>
+        <v>21.938327999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1263.980000</v>
+        <v>1263.98</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.835000</v>
+        <v>-138.83500000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>78988.650631</v>
+        <v>78988.650630999997</v>
       </c>
       <c r="BE24" s="1">
-        <v>21.941292</v>
+        <v>21.941292000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1304.370000</v>
+        <v>1304.3699999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.947000</v>
+        <v>-220.947</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>78999.796263</v>
+        <v>78999.796262999997</v>
       </c>
       <c r="BJ24" s="1">
         <v>21.944388</v>
       </c>
       <c r="BK24" s="1">
-        <v>1374.640000</v>
+        <v>1374.64</v>
       </c>
       <c r="BL24" s="1">
-        <v>-357.547000</v>
+        <v>-357.54700000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>79010.893757</v>
+        <v>79010.893756999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>21.947470</v>
+        <v>21.947469999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1490.310000</v>
+        <v>1490.31</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-579.237000</v>
+        <v>-579.23699999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>79021.532939</v>
+        <v>79021.532938999997</v>
       </c>
       <c r="BT24" s="1">
         <v>21.950426</v>
       </c>
       <c r="BU24" s="1">
-        <v>1623.420000</v>
+        <v>1623.42</v>
       </c>
       <c r="BV24" s="1">
-        <v>-828.686000</v>
+        <v>-828.68600000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>79032.422578</v>
+        <v>79032.422577999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>21.953451</v>
+        <v>21.953451000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1777.160000</v>
+        <v>1777.16</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1098.670000</v>
+        <v>-1098.67</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>79046.043706</v>
+        <v>79046.043705999997</v>
       </c>
       <c r="CD24" s="1">
         <v>21.957234</v>
       </c>
       <c r="CE24" s="1">
-        <v>2196.530000</v>
+        <v>2196.5300000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1750.490000</v>
+        <v>-1750.49</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>78870.471844</v>
       </c>
       <c r="B25" s="1">
-        <v>21.908464</v>
+        <v>21.908463999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1151.020000</v>
+        <v>1151.02</v>
       </c>
       <c r="D25" s="1">
-        <v>-257.070000</v>
+        <v>-257.07</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>78880.930484</v>
+        <v>78880.930483999997</v>
       </c>
       <c r="G25" s="1">
-        <v>21.911370</v>
+        <v>21.911370000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>1172.600000</v>
+        <v>1172.5999999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-216.736000</v>
+        <v>-216.73599999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>78891.443688</v>
+        <v>78891.443687999999</v>
       </c>
       <c r="L25" s="1">
-        <v>21.914290</v>
+        <v>21.914290000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1201.510000</v>
+        <v>1201.51</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.672000</v>
+        <v>-151.672</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>78902.369064</v>
+        <v>78902.369063999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>21.917325</v>
+        <v>21.917325000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1209.710000</v>
+        <v>1209.71</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.517000</v>
+        <v>-129.517</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>78913.178874</v>
+        <v>78913.178874000005</v>
       </c>
       <c r="V25" s="1">
         <v>21.920327</v>
       </c>
       <c r="W25" s="1">
-        <v>1217.280000</v>
+        <v>1217.28</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.806000</v>
+        <v>-108.806</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>78923.722828</v>
+        <v>78923.722827999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>21.923256</v>
+        <v>21.923255999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1225.150000</v>
+        <v>1225.1500000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.543600</v>
+        <v>-91.543599999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>78934.445837</v>
+        <v>78934.445837000007</v>
       </c>
       <c r="AF25" s="1">
-        <v>21.926235</v>
+        <v>21.926234999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>1230.060000</v>
+        <v>1230.06</v>
       </c>
       <c r="AH25" s="1">
-        <v>-87.063400</v>
+        <v>-87.063400000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>78945.289903</v>
+        <v>78945.289902999997</v>
       </c>
       <c r="AK25" s="1">
         <v>21.929247</v>
       </c>
       <c r="AL25" s="1">
-        <v>1237.300000</v>
+        <v>1237.3</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.194300</v>
+        <v>-90.194299999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>78956.247026</v>
+        <v>78956.247025999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>21.932291</v>
+        <v>21.932290999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1245.400000</v>
+        <v>1245.4000000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.061000</v>
+        <v>-102.06100000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>78967.426103</v>
+        <v>78967.426103000005</v>
       </c>
       <c r="AU25" s="1">
-        <v>21.935396</v>
+        <v>21.935396000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1255.480000</v>
+        <v>1255.48</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.340000</v>
+        <v>-121.34</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>78978.304098</v>
+        <v>78978.304097999993</v>
       </c>
       <c r="AZ25" s="1">
-        <v>21.938418</v>
+        <v>21.938417999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1263.980000</v>
+        <v>1263.98</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.868000</v>
+        <v>-138.86799999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>78989.012742</v>
+        <v>78989.012742000006</v>
       </c>
       <c r="BE25" s="1">
         <v>21.941392</v>
       </c>
       <c r="BF25" s="1">
-        <v>1304.370000</v>
+        <v>1304.3699999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.936000</v>
+        <v>-220.93600000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>79000.173364</v>
+        <v>79000.173364000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>21.944493</v>
+        <v>21.944493000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1374.690000</v>
+        <v>1374.69</v>
       </c>
       <c r="BL25" s="1">
-        <v>-357.501000</v>
+        <v>-357.50099999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>79011.289529</v>
+        <v>79011.289529000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>21.947580</v>
+        <v>21.947579999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1490.360000</v>
+        <v>1490.36</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-579.210000</v>
+        <v>-579.21</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>79021.960458</v>
+        <v>79021.960458000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>21.950545</v>
+        <v>21.950545000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1623.370000</v>
+        <v>1623.37</v>
       </c>
       <c r="BV25" s="1">
-        <v>-828.869000</v>
+        <v>-828.86900000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>79032.836236</v>
+        <v>79032.836236000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>21.953566</v>
+        <v>21.953565999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1777.190000</v>
+        <v>1777.19</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1098.720000</v>
+        <v>-1098.72</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>79046.576905</v>
+        <v>79046.576904999994</v>
       </c>
       <c r="CD25" s="1">
-        <v>21.957382</v>
+        <v>21.957381999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2194.260000</v>
+        <v>2194.2600000000002</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1750.840000</v>
+        <v>-1750.84</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>78870.814113</v>
       </c>
@@ -6649,255 +7065,256 @@
         <v>21.908559</v>
       </c>
       <c r="C26" s="1">
-        <v>1150.990000</v>
+        <v>1150.99</v>
       </c>
       <c r="D26" s="1">
-        <v>-257.025000</v>
+        <v>-257.02499999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>78881.616453</v>
+        <v>78881.616452999995</v>
       </c>
       <c r="G26" s="1">
-        <v>21.911560</v>
+        <v>21.911560000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1173.040000</v>
+        <v>1173.04</v>
       </c>
       <c r="I26" s="1">
-        <v>-216.936000</v>
+        <v>-216.93600000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>78892.139575</v>
+        <v>78892.139574999994</v>
       </c>
       <c r="L26" s="1">
-        <v>21.914483</v>
+        <v>21.914483000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1201.540000</v>
+        <v>1201.54</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.364000</v>
+        <v>-151.364</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>78902.718247</v>
+        <v>78902.718246999997</v>
       </c>
       <c r="Q26" s="1">
-        <v>21.917422</v>
+        <v>21.917421999999998</v>
       </c>
       <c r="R26" s="1">
-        <v>1209.720000</v>
+        <v>1209.72</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.518000</v>
+        <v>-129.518</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>78913.523097</v>
+        <v>78913.523096999998</v>
       </c>
       <c r="V26" s="1">
         <v>21.920423</v>
       </c>
       <c r="W26" s="1">
-        <v>1217.200000</v>
+        <v>1217.2</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.514000</v>
+        <v>-108.514</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>78924.075485</v>
+        <v>78924.075484999994</v>
       </c>
       <c r="AA26" s="1">
         <v>21.923354</v>
       </c>
       <c r="AB26" s="1">
-        <v>1225.180000</v>
+        <v>1225.18</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.668500</v>
+        <v>-91.668499999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>78935.107533</v>
+        <v>78935.107533000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>21.926419</v>
+        <v>21.926418999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1230.120000</v>
+        <v>1230.1199999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.833200</v>
+        <v>-86.833200000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>78945.677742</v>
       </c>
       <c r="AK26" s="1">
-        <v>21.929355</v>
+        <v>21.929355000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.192100</v>
+        <v>-90.192099999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>78956.685489</v>
+        <v>78956.685488999996</v>
       </c>
       <c r="AP26" s="1">
         <v>21.932413</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1245.420000</v>
+        <v>1245.42</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.049000</v>
+        <v>-102.04900000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>78967.790882</v>
+        <v>78967.790882000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>21.935497</v>
+        <v>21.935497000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1255.480000</v>
+        <v>1255.48</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.358000</v>
+        <v>-121.358</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>78978.663716</v>
+        <v>78978.663715999995</v>
       </c>
       <c r="AZ26" s="1">
-        <v>21.938518</v>
+        <v>21.938517999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1263.970000</v>
+        <v>1263.97</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.836000</v>
+        <v>-138.83600000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>78989.372309</v>
+        <v>78989.372308999998</v>
       </c>
       <c r="BE26" s="1">
         <v>21.941492</v>
       </c>
       <c r="BF26" s="1">
-        <v>1304.370000</v>
+        <v>1304.3699999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.943000</v>
+        <v>-220.94300000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>79000.601270</v>
+        <v>79000.601269999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>21.944611</v>
+        <v>21.944610999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1374.670000</v>
+        <v>1374.67</v>
       </c>
       <c r="BL26" s="1">
-        <v>-357.505000</v>
+        <v>-357.505</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>79011.777593</v>
+        <v>79011.777593000006</v>
       </c>
       <c r="BO26" s="1">
         <v>21.947716</v>
       </c>
       <c r="BP26" s="1">
-        <v>1490.320000</v>
+        <v>1490.32</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-579.165000</v>
+        <v>-579.16499999999996</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>79022.390985</v>
+        <v>79022.390985000005</v>
       </c>
       <c r="BT26" s="1">
         <v>21.950664</v>
       </c>
       <c r="BU26" s="1">
-        <v>1623.440000</v>
+        <v>1623.44</v>
       </c>
       <c r="BV26" s="1">
-        <v>-828.830000</v>
+        <v>-828.83</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>79033.258331</v>
+        <v>79033.258331000005</v>
       </c>
       <c r="BY26" s="1">
-        <v>21.953683</v>
+        <v>21.953683000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1777.240000</v>
+        <v>1777.24</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1098.630000</v>
+        <v>-1098.6300000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>79047.117088</v>
+        <v>79047.117087999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>21.957533</v>
+        <v>21.957533000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>2196.640000</v>
+        <v>2196.64</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1751.530000</v>
+        <v>-1751.53</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>